--- a/시장분석용_정보/시장분석용_4128156000.xlsx
+++ b/시장분석용_정보/시장분석용_4128156000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,19 +160,154 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>202001 2209068584</t>
+  </si>
+  <si>
+    <t>202002 2209068584</t>
+  </si>
+  <si>
+    <t>202003 2209068584</t>
+  </si>
+  <si>
+    <t>202004 2209068584</t>
+  </si>
+  <si>
+    <t>202005 2209068584</t>
+  </si>
+  <si>
+    <t>202006 2209068584</t>
+  </si>
+  <si>
+    <t>202007 2209068584</t>
+  </si>
+  <si>
+    <t>202008 2209068584</t>
+  </si>
+  <si>
+    <t>202009 2209068584</t>
+  </si>
+  <si>
+    <t>202010 2209068584</t>
+  </si>
+  <si>
+    <t>202011 2209068584</t>
+  </si>
+  <si>
+    <t>202012 2209068584</t>
+  </si>
+  <si>
+    <t>202101 2209068584</t>
+  </si>
+  <si>
+    <t>202102 2209068584</t>
+  </si>
+  <si>
+    <t>202103 2209068584</t>
+  </si>
+  <si>
+    <t>202104 2209068584</t>
+  </si>
+  <si>
+    <t>202105 2209068584</t>
+  </si>
+  <si>
+    <t>202106 2209068584</t>
+  </si>
+  <si>
+    <t>202107 2209068584</t>
+  </si>
+  <si>
+    <t>202204 2029505422</t>
+  </si>
+  <si>
     <t>202204 6354500767</t>
   </si>
   <si>
+    <t>202205 2029505422</t>
+  </si>
+  <si>
+    <t>202205 5769901422</t>
+  </si>
+  <si>
     <t>202205 6354500767</t>
   </si>
   <si>
+    <t>JDU4MTI3MSM1MSMkMiMkMCMkMDAkNDgxMzUxIzExIyQxIyQ3IyQ4OSQyNjE0ODEjNjEjJDEjJDAjJDgz</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM1MSMkMSMkMCMkNzIkNTgxMzUxIzQxIyQxIyQ3IyQ3MiQyNjE4MzIjNjEjJDEjJDAjJDgz</t>
+  </si>
+  <si>
+    <t>JDU4MTI3MSM1MSMkMiMkMCMkMDAkNTgxMzUxIzIxIyQxIyQxIyQxMyQzNjEwMDIjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>연세열린의원</t>
+  </si>
+  <si>
+    <t>지축퍼스트치과의원</t>
+  </si>
+  <si>
     <t>다시봄날의원 지축점</t>
   </si>
   <si>
-    <t>경기도 고양시 덕양구 지축1로 39 4층 403~406호(지축동,지축프라자)</t>
-  </si>
-  <si>
-    <t>JDU4MTI3MSM1MSMkMiMkMCMkMDAkNTgxMzUxIzIxIyQxIyQxIyQxMyQzNjEwMDIjNDEjJDEjJDgjJDgz</t>
+    <t>경기도 고양시 덕양구 지축1로 39 401호 (지축동)</t>
+  </si>
+  <si>
+    <t>경기도 고양시 덕양구 지축1로 39 303~306호 (지축동)</t>
+  </si>
+  <si>
+    <t>경기도 고양시 덕양구 지축1로 39 403~406호 (지축동)</t>
+  </si>
+  <si>
+    <t>소아청소년과</t>
+  </si>
+  <si>
+    <t>치과</t>
   </si>
   <si>
     <t>일반의원</t>
@@ -485,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,207 +771,4679 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>296551</v>
+        <v>2546</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2">
+        <v>202001</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+      <c r="G2">
+        <v>2209068584</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2">
+        <v>4128156000</v>
+      </c>
+      <c r="K2">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2">
+        <v>9034074</v>
+      </c>
+      <c r="N2">
+        <v>851</v>
+      </c>
+      <c r="O2">
+        <v>10641</v>
+      </c>
+      <c r="P2">
+        <v>47.64</v>
+      </c>
+      <c r="Q2">
+        <v>52.36</v>
+      </c>
+      <c r="R2">
+        <v>24.17</v>
+      </c>
+      <c r="S2">
+        <v>15.22</v>
+      </c>
+      <c r="T2">
+        <v>7.93</v>
+      </c>
+      <c r="U2">
+        <v>11.59</v>
+      </c>
+      <c r="V2">
+        <v>12.44</v>
+      </c>
+      <c r="W2">
+        <v>24.42</v>
+      </c>
+      <c r="X2">
+        <v>4.23</v>
+      </c>
+      <c r="Y2">
+        <v>26.79</v>
+      </c>
+      <c r="Z2">
+        <v>35.07</v>
+      </c>
+      <c r="AA2">
+        <v>26.94</v>
+      </c>
+      <c r="AB2">
+        <v>11.2</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0.67</v>
+      </c>
+      <c r="AG2">
+        <v>19.19</v>
+      </c>
+      <c r="AH2">
+        <v>32.78</v>
+      </c>
+      <c r="AI2">
+        <v>6.06</v>
+      </c>
+      <c r="AJ2">
+        <v>1.68</v>
+      </c>
+      <c r="AK2">
+        <v>2.58</v>
+      </c>
+      <c r="AL2">
+        <v>13.98</v>
+      </c>
+      <c r="AM2">
+        <v>21.74</v>
+      </c>
+      <c r="AN2">
+        <v>0.55</v>
+      </c>
+      <c r="AO2">
+        <v>0.77</v>
+      </c>
+      <c r="AP2">
+        <v>3.83</v>
+      </c>
+      <c r="AQ2">
+        <v>0.15</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>18.78</v>
+      </c>
+      <c r="AT2">
+        <v>52.7</v>
+      </c>
+      <c r="AU2">
+        <v>17.39</v>
+      </c>
+      <c r="AV2">
+        <v>4.8</v>
+      </c>
+      <c r="AW2">
+        <v>2.35</v>
+      </c>
+      <c r="AX2">
+        <v>12.18</v>
+      </c>
+      <c r="AY2">
+        <v>0.74</v>
+      </c>
+      <c r="AZ2">
+        <v>42.21</v>
+      </c>
+      <c r="BA2">
+        <v>30.03</v>
+      </c>
+      <c r="BB2">
+        <v>13.5</v>
+      </c>
+      <c r="BC2">
+        <v>1.34</v>
+      </c>
+      <c r="BD2">
+        <v>20.53</v>
+      </c>
+      <c r="BE2">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="BG2">
+        <v>72.59</v>
+      </c>
+      <c r="BH2">
+        <v>72.94</v>
+      </c>
+      <c r="BI2">
+        <v>94.88</v>
+      </c>
+      <c r="BJ2">
+        <v>40.2</v>
+      </c>
+      <c r="BK2">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>14306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3">
+        <v>202002</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+      <c r="G3">
+        <v>2209068584</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3">
+        <v>4128156000</v>
+      </c>
+      <c r="K3">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3">
+        <v>5182010</v>
+      </c>
+      <c r="N3">
+        <v>604</v>
+      </c>
+      <c r="O3">
+        <v>8634</v>
+      </c>
+      <c r="P3">
+        <v>59.45</v>
+      </c>
+      <c r="Q3">
+        <v>40.55</v>
+      </c>
+      <c r="R3">
+        <v>27.94</v>
+      </c>
+      <c r="S3">
+        <v>9.67</v>
+      </c>
+      <c r="T3">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="U3">
+        <v>11.22</v>
+      </c>
+      <c r="V3">
+        <v>26.84</v>
+      </c>
+      <c r="W3">
+        <v>1.86</v>
+      </c>
+      <c r="X3">
+        <v>12.61</v>
+      </c>
+      <c r="Y3">
+        <v>12.39</v>
+      </c>
+      <c r="Z3">
+        <v>48.46</v>
+      </c>
+      <c r="AA3">
+        <v>28.72</v>
+      </c>
+      <c r="AB3">
+        <v>10.42</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.77</v>
+      </c>
+      <c r="AG3">
+        <v>38.39</v>
+      </c>
+      <c r="AH3">
+        <v>11.28</v>
+      </c>
+      <c r="AI3">
+        <v>2.47</v>
+      </c>
+      <c r="AJ3">
+        <v>0.72</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>28.55</v>
+      </c>
+      <c r="AM3">
+        <v>13.46</v>
+      </c>
+      <c r="AN3">
+        <v>1.81</v>
+      </c>
+      <c r="AO3">
+        <v>2.56</v>
+      </c>
+      <c r="AP3">
+        <v>3.32</v>
+      </c>
+      <c r="AQ3">
+        <v>3.27</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>14.8</v>
+      </c>
+      <c r="AT3">
+        <v>54.87</v>
+      </c>
+      <c r="AU3">
+        <v>15.94</v>
+      </c>
+      <c r="AV3">
+        <v>6.43</v>
+      </c>
+      <c r="AW3">
+        <v>1.37</v>
+      </c>
+      <c r="AX3">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>0.3</v>
+      </c>
+      <c r="AZ3">
+        <v>58.24</v>
+      </c>
+      <c r="BA3">
+        <v>26.25</v>
+      </c>
+      <c r="BB3">
+        <v>2.14</v>
+      </c>
+      <c r="BC3">
+        <v>3.27</v>
+      </c>
+      <c r="BD3">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="BE3">
+        <v>3.78</v>
+      </c>
+      <c r="BF3">
+        <v>4.34</v>
+      </c>
+      <c r="BG3">
+        <v>85.09</v>
+      </c>
+      <c r="BH3">
+        <v>86.17</v>
+      </c>
+      <c r="BI3">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="BJ3">
+        <v>47.8</v>
+      </c>
+      <c r="BK3">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>26065</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4">
+        <v>202003</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+      <c r="G4">
+        <v>2209068584</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>4128156000</v>
+      </c>
+      <c r="K4">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4">
+        <v>3282014</v>
+      </c>
+      <c r="N4">
+        <v>418</v>
+      </c>
+      <c r="O4">
+        <v>7788</v>
+      </c>
+      <c r="P4">
+        <v>70.95999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>29.04</v>
+      </c>
+      <c r="R4">
+        <v>13.14</v>
+      </c>
+      <c r="S4">
+        <v>9.69</v>
+      </c>
+      <c r="T4">
+        <v>8.32</v>
+      </c>
+      <c r="U4">
+        <v>29.17</v>
+      </c>
+      <c r="V4">
+        <v>19.15</v>
+      </c>
+      <c r="W4">
+        <v>4.63</v>
+      </c>
+      <c r="X4">
+        <v>15.9</v>
+      </c>
+      <c r="Y4">
+        <v>33.35</v>
+      </c>
+      <c r="Z4">
+        <v>22.31</v>
+      </c>
+      <c r="AA4">
+        <v>36.26</v>
+      </c>
+      <c r="AB4">
+        <v>8.08</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>2.55</v>
+      </c>
+      <c r="AG4">
+        <v>48.87</v>
+      </c>
+      <c r="AH4">
+        <v>11.94</v>
+      </c>
+      <c r="AI4">
+        <v>0.24</v>
+      </c>
+      <c r="AJ4">
+        <v>1.57</v>
+      </c>
+      <c r="AK4">
+        <v>0.76</v>
+      </c>
+      <c r="AL4">
+        <v>18.41</v>
+      </c>
+      <c r="AM4">
+        <v>13.68</v>
+      </c>
+      <c r="AN4">
+        <v>1.74</v>
+      </c>
+      <c r="AO4">
+        <v>0.24</v>
+      </c>
+      <c r="AP4">
+        <v>2.93</v>
+      </c>
+      <c r="AQ4">
+        <v>1.65</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>27.11</v>
+      </c>
+      <c r="AT4">
+        <v>21.29</v>
+      </c>
+      <c r="AU4">
+        <v>35.99</v>
+      </c>
+      <c r="AV4">
+        <v>8.94</v>
+      </c>
+      <c r="AW4">
+        <v>2.09</v>
+      </c>
+      <c r="AX4">
+        <v>7.34</v>
+      </c>
+      <c r="AY4">
+        <v>7.36</v>
+      </c>
+      <c r="AZ4">
+        <v>63.38</v>
+      </c>
+      <c r="BA4">
+        <v>19.88</v>
+      </c>
+      <c r="BB4">
+        <v>1.25</v>
+      </c>
+      <c r="BC4">
+        <v>0.79</v>
+      </c>
+      <c r="BD4">
+        <v>9.02</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>2.25</v>
+      </c>
+      <c r="BG4">
+        <v>77.39</v>
+      </c>
+      <c r="BH4">
+        <v>78.81999999999999</v>
+      </c>
+      <c r="BI4">
+        <v>86.11</v>
+      </c>
+      <c r="BJ4">
+        <v>34.4</v>
+      </c>
+      <c r="BK4">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>37852</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>202004</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+      <c r="G5">
+        <v>2209068584</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5">
+        <v>4128156000</v>
+      </c>
+      <c r="K5">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5">
+        <v>2162744</v>
+      </c>
+      <c r="N5">
+        <v>335</v>
+      </c>
+      <c r="O5">
+        <v>6344</v>
+      </c>
+      <c r="P5">
+        <v>73.33</v>
+      </c>
+      <c r="Q5">
+        <v>26.67</v>
+      </c>
+      <c r="R5">
+        <v>13.99</v>
+      </c>
+      <c r="S5">
+        <v>8.99</v>
+      </c>
+      <c r="T5">
+        <v>5.25</v>
+      </c>
+      <c r="U5">
+        <v>33.5</v>
+      </c>
+      <c r="V5">
+        <v>15.2</v>
+      </c>
+      <c r="W5">
+        <v>11.43</v>
+      </c>
+      <c r="X5">
+        <v>11.65</v>
+      </c>
+      <c r="Y5">
+        <v>7.93</v>
+      </c>
+      <c r="Z5">
+        <v>42.54</v>
+      </c>
+      <c r="AA5">
+        <v>32.98</v>
+      </c>
+      <c r="AB5">
+        <v>16.55</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1.09</v>
+      </c>
+      <c r="AG5">
+        <v>12.95</v>
+      </c>
+      <c r="AH5">
+        <v>25.16</v>
+      </c>
+      <c r="AI5">
+        <v>28.94</v>
+      </c>
+      <c r="AJ5">
+        <v>2.44</v>
+      </c>
+      <c r="AK5">
+        <v>1.55</v>
+      </c>
+      <c r="AL5">
+        <v>6.66</v>
+      </c>
+      <c r="AM5">
+        <v>16.76</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>4.46</v>
+      </c>
+      <c r="AP5">
+        <v>1.37</v>
+      </c>
+      <c r="AQ5">
+        <v>1.55</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>11.11</v>
+      </c>
+      <c r="AT5">
+        <v>34.22</v>
+      </c>
+      <c r="AU5">
+        <v>44.66</v>
+      </c>
+      <c r="AV5">
+        <v>5.83</v>
+      </c>
+      <c r="AW5">
+        <v>1.24</v>
+      </c>
+      <c r="AX5">
+        <v>4.69</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>38.08</v>
+      </c>
+      <c r="BA5">
+        <v>21.45</v>
+      </c>
+      <c r="BB5">
+        <v>32.31</v>
+      </c>
+      <c r="BC5">
+        <v>3.47</v>
+      </c>
+      <c r="BD5">
+        <v>13.99</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>2.88</v>
+      </c>
+      <c r="BG5">
+        <v>83.78</v>
+      </c>
+      <c r="BH5">
+        <v>86.70999999999999</v>
+      </c>
+      <c r="BI5">
+        <v>100</v>
+      </c>
+      <c r="BJ5">
+        <v>22.4</v>
+      </c>
+      <c r="BK5">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>49681</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>202005</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+      <c r="G6">
+        <v>2209068584</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>4128156000</v>
+      </c>
+      <c r="K6">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6">
+        <v>2756325</v>
+      </c>
+      <c r="N6">
+        <v>609</v>
+      </c>
+      <c r="O6">
+        <v>4545</v>
+      </c>
+      <c r="P6">
+        <v>44.2</v>
+      </c>
+      <c r="Q6">
+        <v>55.8</v>
+      </c>
+      <c r="R6">
+        <v>33.65</v>
+      </c>
+      <c r="S6">
+        <v>11.31</v>
+      </c>
+      <c r="T6">
+        <v>2.24</v>
+      </c>
+      <c r="U6">
+        <v>14.83</v>
+      </c>
+      <c r="V6">
+        <v>7.4</v>
+      </c>
+      <c r="W6">
+        <v>11.27</v>
+      </c>
+      <c r="X6">
+        <v>19.31</v>
+      </c>
+      <c r="Y6">
+        <v>21.7</v>
+      </c>
+      <c r="Z6">
+        <v>34.69</v>
+      </c>
+      <c r="AA6">
+        <v>28.13</v>
+      </c>
+      <c r="AB6">
+        <v>15.48</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>2.18</v>
+      </c>
+      <c r="AG6">
+        <v>22.08</v>
+      </c>
+      <c r="AH6">
+        <v>18.29</v>
+      </c>
+      <c r="AI6">
+        <v>1.56</v>
+      </c>
+      <c r="AJ6">
+        <v>1.04</v>
+      </c>
+      <c r="AK6">
+        <v>3.87</v>
+      </c>
+      <c r="AL6">
+        <v>22.74</v>
+      </c>
+      <c r="AM6">
+        <v>23.58</v>
+      </c>
+      <c r="AN6">
+        <v>2.05</v>
+      </c>
+      <c r="AO6">
+        <v>2.62</v>
+      </c>
+      <c r="AP6">
+        <v>0.47</v>
+      </c>
+      <c r="AQ6">
+        <v>2.83</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>7.66</v>
+      </c>
+      <c r="AT6">
+        <v>51.92</v>
+      </c>
+      <c r="AU6">
+        <v>26.1</v>
+      </c>
+      <c r="AV6">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AW6">
+        <v>2.31</v>
+      </c>
+      <c r="AX6">
+        <v>15.71</v>
+      </c>
+      <c r="AY6">
+        <v>1.04</v>
+      </c>
+      <c r="AZ6">
+        <v>59.47</v>
+      </c>
+      <c r="BA6">
+        <v>18.34</v>
+      </c>
+      <c r="BB6">
+        <v>3.64</v>
+      </c>
+      <c r="BC6">
+        <v>1.8</v>
+      </c>
+      <c r="BD6">
+        <v>7.17</v>
+      </c>
+      <c r="BE6">
+        <v>2.07</v>
+      </c>
+      <c r="BF6">
+        <v>7.09</v>
+      </c>
+      <c r="BG6">
+        <v>75.25</v>
+      </c>
+      <c r="BH6">
+        <v>77.79000000000001</v>
+      </c>
+      <c r="BI6">
+        <v>95.68000000000001</v>
+      </c>
+      <c r="BJ6">
+        <v>15</v>
+      </c>
+      <c r="BK6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>61583</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>202006</v>
+      </c>
+      <c r="F7">
+        <v>2020</v>
+      </c>
+      <c r="G7">
+        <v>2209068584</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7">
+        <v>4128156000</v>
+      </c>
+      <c r="K7">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7">
+        <v>4679882</v>
+      </c>
+      <c r="N7">
+        <v>572</v>
+      </c>
+      <c r="O7">
+        <v>8265</v>
+      </c>
+      <c r="P7">
+        <v>53.55</v>
+      </c>
+      <c r="Q7">
+        <v>46.45</v>
+      </c>
+      <c r="R7">
+        <v>41.15</v>
+      </c>
+      <c r="S7">
+        <v>18.96</v>
+      </c>
+      <c r="T7">
+        <v>7.5</v>
+      </c>
+      <c r="U7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="V7">
+        <v>5.79</v>
+      </c>
+      <c r="W7">
+        <v>13.19</v>
+      </c>
+      <c r="X7">
+        <v>5.3</v>
+      </c>
+      <c r="Y7">
+        <v>18.46</v>
+      </c>
+      <c r="Z7">
+        <v>15</v>
+      </c>
+      <c r="AA7">
+        <v>55.05</v>
+      </c>
+      <c r="AB7">
+        <v>11.49</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.66</v>
+      </c>
+      <c r="AG7">
+        <v>61.81</v>
+      </c>
+      <c r="AH7">
+        <v>6.37</v>
+      </c>
+      <c r="AI7">
+        <v>2.35</v>
+      </c>
+      <c r="AJ7">
+        <v>1.35</v>
+      </c>
+      <c r="AK7">
+        <v>1.66</v>
+      </c>
+      <c r="AL7">
+        <v>7.5</v>
+      </c>
+      <c r="AM7">
+        <v>17.01</v>
+      </c>
+      <c r="AN7">
+        <v>0.75</v>
+      </c>
+      <c r="AO7">
+        <v>0.54</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>5.97</v>
+      </c>
+      <c r="AT7">
+        <v>38.76</v>
+      </c>
+      <c r="AU7">
+        <v>49.6</v>
+      </c>
+      <c r="AV7">
+        <v>3.47</v>
+      </c>
+      <c r="AW7">
+        <v>2.19</v>
+      </c>
+      <c r="AX7">
+        <v>4.57</v>
+      </c>
+      <c r="AY7">
+        <v>1.29</v>
+      </c>
+      <c r="AZ7">
+        <v>76.51000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>14.41</v>
+      </c>
+      <c r="BB7">
+        <v>2.24</v>
+      </c>
+      <c r="BC7">
+        <v>0.98</v>
+      </c>
+      <c r="BD7">
+        <v>5.41</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>1.66</v>
+      </c>
+      <c r="BG7">
+        <v>52.11</v>
+      </c>
+      <c r="BH7">
+        <v>52.11</v>
+      </c>
+      <c r="BI7">
+        <v>98.67</v>
+      </c>
+      <c r="BJ7">
+        <v>25.6</v>
+      </c>
+      <c r="BK7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>73495</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>202007</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+      <c r="G8">
+        <v>2209068584</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8">
+        <v>4128156000</v>
+      </c>
+      <c r="K8">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>3150825</v>
+      </c>
+      <c r="N8">
+        <v>494</v>
+      </c>
+      <c r="O8">
+        <v>6451</v>
+      </c>
+      <c r="P8">
+        <v>74.27</v>
+      </c>
+      <c r="Q8">
+        <v>25.73</v>
+      </c>
+      <c r="R8">
+        <v>14.36</v>
+      </c>
+      <c r="S8">
+        <v>30.28</v>
+      </c>
+      <c r="T8">
+        <v>4.73</v>
+      </c>
+      <c r="U8">
+        <v>22.86</v>
+      </c>
+      <c r="V8">
+        <v>8.58</v>
+      </c>
+      <c r="W8">
+        <v>7.83</v>
+      </c>
+      <c r="X8">
+        <v>11.36</v>
+      </c>
+      <c r="Y8">
+        <v>55.38</v>
+      </c>
+      <c r="Z8">
+        <v>20.98</v>
+      </c>
+      <c r="AA8">
+        <v>16.06</v>
+      </c>
+      <c r="AB8">
+        <v>7.59</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>2.92</v>
+      </c>
+      <c r="AG8">
+        <v>31.17</v>
+      </c>
+      <c r="AH8">
+        <v>9.32</v>
+      </c>
+      <c r="AI8">
+        <v>1.63</v>
+      </c>
+      <c r="AJ8">
+        <v>3.07</v>
+      </c>
+      <c r="AK8">
+        <v>1.68</v>
+      </c>
+      <c r="AL8">
+        <v>12.83</v>
+      </c>
+      <c r="AM8">
+        <v>14.58</v>
+      </c>
+      <c r="AN8">
+        <v>22.26</v>
+      </c>
+      <c r="AO8">
+        <v>0.54</v>
+      </c>
+      <c r="AP8">
+        <v>1.75</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AT8">
+        <v>19.44</v>
+      </c>
+      <c r="AU8">
+        <v>40.4</v>
+      </c>
+      <c r="AV8">
+        <v>8.58</v>
+      </c>
+      <c r="AW8">
+        <v>20.63</v>
+      </c>
+      <c r="AX8">
+        <v>6.76</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>30.36</v>
+      </c>
+      <c r="BA8">
+        <v>38.7</v>
+      </c>
+      <c r="BB8">
+        <v>22.66</v>
+      </c>
+      <c r="BC8">
+        <v>1.52</v>
+      </c>
+      <c r="BD8">
+        <v>7.85</v>
+      </c>
+      <c r="BE8">
+        <v>3.15</v>
+      </c>
+      <c r="BF8">
+        <v>1.88</v>
+      </c>
+      <c r="BG8">
+        <v>84.04000000000001</v>
+      </c>
+      <c r="BH8">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="BI8">
+        <v>98.09</v>
+      </c>
+      <c r="BJ8">
+        <v>33.8</v>
+      </c>
+      <c r="BK8">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>85401</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <v>202008</v>
+      </c>
+      <c r="F9">
+        <v>2020</v>
+      </c>
+      <c r="G9">
+        <v>2209068584</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9">
+        <v>4128156000</v>
+      </c>
+      <c r="K9">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9">
+        <v>2304650</v>
+      </c>
+      <c r="N9">
+        <v>444</v>
+      </c>
+      <c r="O9">
+        <v>5214</v>
+      </c>
+      <c r="P9">
+        <v>57.2</v>
+      </c>
+      <c r="Q9">
+        <v>42.8</v>
+      </c>
+      <c r="R9">
+        <v>20.6</v>
+      </c>
+      <c r="S9">
+        <v>15.12</v>
+      </c>
+      <c r="T9">
+        <v>11.21</v>
+      </c>
+      <c r="U9">
+        <v>20.71</v>
+      </c>
+      <c r="V9">
+        <v>6.79</v>
+      </c>
+      <c r="W9">
+        <v>4.72</v>
+      </c>
+      <c r="X9">
+        <v>20.85</v>
+      </c>
+      <c r="Y9">
+        <v>23.67</v>
+      </c>
+      <c r="Z9">
+        <v>27.78</v>
+      </c>
+      <c r="AA9">
+        <v>32.85</v>
+      </c>
+      <c r="AB9">
+        <v>15.7</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>1.74</v>
+      </c>
+      <c r="AG9">
+        <v>27.62</v>
+      </c>
+      <c r="AH9">
+        <v>14.01</v>
+      </c>
+      <c r="AI9">
+        <v>1.51</v>
+      </c>
+      <c r="AJ9">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="AK9">
+        <v>1.74</v>
+      </c>
+      <c r="AL9">
+        <v>17.53</v>
+      </c>
+      <c r="AM9">
+        <v>24.19</v>
+      </c>
+      <c r="AN9">
+        <v>1.08</v>
+      </c>
+      <c r="AO9">
+        <v>0.7</v>
+      </c>
+      <c r="AP9">
+        <v>1.78</v>
+      </c>
+      <c r="AQ9">
+        <v>2.41</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>24.35</v>
+      </c>
+      <c r="AT9">
+        <v>46.82</v>
+      </c>
+      <c r="AU9">
+        <v>12.16</v>
+      </c>
+      <c r="AV9">
+        <v>9.91</v>
+      </c>
+      <c r="AW9">
+        <v>2.57</v>
+      </c>
+      <c r="AX9">
+        <v>14.51</v>
+      </c>
+      <c r="AY9">
+        <v>0.25</v>
+      </c>
+      <c r="AZ9">
+        <v>47.56</v>
+      </c>
+      <c r="BA9">
+        <v>26.02</v>
+      </c>
+      <c r="BB9">
+        <v>3.95</v>
+      </c>
+      <c r="BC9">
+        <v>7.72</v>
+      </c>
+      <c r="BD9">
+        <v>7.15</v>
+      </c>
+      <c r="BE9">
+        <v>3.52</v>
+      </c>
+      <c r="BF9">
+        <v>4.56</v>
+      </c>
+      <c r="BG9">
+        <v>80.01000000000001</v>
+      </c>
+      <c r="BH9">
+        <v>80.01000000000001</v>
+      </c>
+      <c r="BI9">
+        <v>98.53</v>
+      </c>
+      <c r="BJ9">
+        <v>22.7</v>
+      </c>
+      <c r="BK9">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>97332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10">
+        <v>202009</v>
+      </c>
+      <c r="F10">
+        <v>2020</v>
+      </c>
+      <c r="G10">
+        <v>2209068584</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10">
+        <v>4128156000</v>
+      </c>
+      <c r="K10">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10">
+        <v>11648955</v>
+      </c>
+      <c r="N10">
+        <v>546</v>
+      </c>
+      <c r="O10">
+        <v>21385</v>
+      </c>
+      <c r="P10">
+        <v>36.21</v>
+      </c>
+      <c r="Q10">
+        <v>63.79</v>
+      </c>
+      <c r="R10">
+        <v>28.91</v>
+      </c>
+      <c r="S10">
+        <v>3.5</v>
+      </c>
+      <c r="T10">
+        <v>14.2</v>
+      </c>
+      <c r="U10">
+        <v>15.05</v>
+      </c>
+      <c r="V10">
+        <v>1.06</v>
+      </c>
+      <c r="W10">
+        <v>13.41</v>
+      </c>
+      <c r="X10">
+        <v>23.88</v>
+      </c>
+      <c r="Y10">
+        <v>29.64</v>
+      </c>
+      <c r="Z10">
+        <v>47.63</v>
+      </c>
+      <c r="AA10">
+        <v>19.24</v>
+      </c>
+      <c r="AB10">
+        <v>3.5</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0.91</v>
+      </c>
+      <c r="AG10">
+        <v>19.92</v>
+      </c>
+      <c r="AH10">
+        <v>20.71</v>
+      </c>
+      <c r="AI10">
+        <v>7.53</v>
+      </c>
+      <c r="AJ10">
+        <v>1.05</v>
+      </c>
+      <c r="AK10">
+        <v>3.63</v>
+      </c>
+      <c r="AL10">
+        <v>23.69</v>
+      </c>
+      <c r="AM10">
+        <v>12.9</v>
+      </c>
+      <c r="AN10">
+        <v>9.26</v>
+      </c>
+      <c r="AO10">
+        <v>0.41</v>
+      </c>
+      <c r="AP10">
+        <v>0.35</v>
+      </c>
+      <c r="AQ10">
+        <v>0.33</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>7.39</v>
+      </c>
+      <c r="AT10">
+        <v>59.59</v>
+      </c>
+      <c r="AU10">
+        <v>26.57</v>
+      </c>
+      <c r="AV10">
+        <v>2.94</v>
+      </c>
+      <c r="AW10">
+        <v>2.83</v>
+      </c>
+      <c r="AX10">
+        <v>11.95</v>
+      </c>
+      <c r="AY10">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="AZ10">
+        <v>28.76</v>
+      </c>
+      <c r="BA10">
+        <v>41.75</v>
+      </c>
+      <c r="BB10">
+        <v>7.68</v>
+      </c>
+      <c r="BC10">
+        <v>0.57</v>
+      </c>
+      <c r="BD10">
+        <v>15.03</v>
+      </c>
+      <c r="BE10">
+        <v>0.35</v>
+      </c>
+      <c r="BF10">
+        <v>1.86</v>
+      </c>
+      <c r="BG10">
+        <v>82.77</v>
+      </c>
+      <c r="BH10">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="BI10">
+        <v>97.58</v>
+      </c>
+      <c r="BJ10">
+        <v>26.8</v>
+      </c>
+      <c r="BK10">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>109295</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11">
+        <v>202010</v>
+      </c>
+      <c r="F11">
+        <v>2020</v>
+      </c>
+      <c r="G11">
+        <v>2209068584</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11">
+        <v>4128156000</v>
+      </c>
+      <c r="K11">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11">
+        <v>9670153</v>
+      </c>
+      <c r="N11">
+        <v>535</v>
+      </c>
+      <c r="O11">
+        <v>18004</v>
+      </c>
+      <c r="P11">
+        <v>60.76</v>
+      </c>
+      <c r="Q11">
+        <v>39.24</v>
+      </c>
+      <c r="R11">
+        <v>15.24</v>
+      </c>
+      <c r="S11">
+        <v>28.59</v>
+      </c>
+      <c r="T11">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="U11">
+        <v>4.13</v>
+      </c>
+      <c r="V11">
+        <v>17</v>
+      </c>
+      <c r="W11">
+        <v>16.85</v>
+      </c>
+      <c r="X11">
+        <v>8.58</v>
+      </c>
+      <c r="Y11">
+        <v>11.04</v>
+      </c>
+      <c r="Z11">
+        <v>47.85</v>
+      </c>
+      <c r="AA11">
+        <v>39.81</v>
+      </c>
+      <c r="AB11">
+        <v>1.31</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>10.54</v>
+      </c>
+      <c r="AG11">
+        <v>31.07</v>
+      </c>
+      <c r="AH11">
+        <v>8.82</v>
+      </c>
+      <c r="AI11">
+        <v>18.98</v>
+      </c>
+      <c r="AJ11">
+        <v>1.5</v>
+      </c>
+      <c r="AK11">
+        <v>0.32</v>
+      </c>
+      <c r="AL11">
+        <v>18.79</v>
+      </c>
+      <c r="AM11">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.64</v>
+      </c>
+      <c r="AO11">
+        <v>0.79</v>
+      </c>
+      <c r="AP11">
+        <v>5.03</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>17.65</v>
+      </c>
+      <c r="AT11">
+        <v>40.86</v>
+      </c>
+      <c r="AU11">
+        <v>25.86</v>
+      </c>
+      <c r="AV11">
+        <v>7.89</v>
+      </c>
+      <c r="AW11">
+        <v>2.71</v>
+      </c>
+      <c r="AX11">
+        <v>18.43</v>
+      </c>
+      <c r="AY11">
+        <v>0.37</v>
+      </c>
+      <c r="AZ11">
+        <v>42.27</v>
+      </c>
+      <c r="BA11">
+        <v>25.36</v>
+      </c>
+      <c r="BB11">
+        <v>12.69</v>
+      </c>
+      <c r="BC11">
+        <v>0.88</v>
+      </c>
+      <c r="BD11">
+        <v>13.71</v>
+      </c>
+      <c r="BE11">
+        <v>5.67</v>
+      </c>
+      <c r="BF11">
+        <v>0.3</v>
+      </c>
+      <c r="BG11">
+        <v>68.61</v>
+      </c>
+      <c r="BH11">
+        <v>69.23999999999999</v>
+      </c>
+      <c r="BI11">
+        <v>97.13</v>
+      </c>
+      <c r="BJ11">
+        <v>27.1</v>
+      </c>
+      <c r="BK11">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>121304</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <v>202011</v>
+      </c>
+      <c r="F12">
+        <v>2020</v>
+      </c>
+      <c r="G12">
+        <v>2209068584</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12">
+        <v>4128156000</v>
+      </c>
+      <c r="K12">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12">
+        <v>4130707</v>
+      </c>
+      <c r="N12">
+        <v>748</v>
+      </c>
+      <c r="O12">
+        <v>5595</v>
+      </c>
+      <c r="P12">
+        <v>58.3</v>
+      </c>
+      <c r="Q12">
+        <v>41.7</v>
+      </c>
+      <c r="R12">
+        <v>32.18</v>
+      </c>
+      <c r="S12">
+        <v>17.71</v>
+      </c>
+      <c r="T12">
+        <v>6.2</v>
+      </c>
+      <c r="U12">
+        <v>8.44</v>
+      </c>
+      <c r="V12">
+        <v>20.37</v>
+      </c>
+      <c r="W12">
+        <v>5.58</v>
+      </c>
+      <c r="X12">
+        <v>9.52</v>
+      </c>
+      <c r="Y12">
+        <v>21.47</v>
+      </c>
+      <c r="Z12">
+        <v>48.93</v>
+      </c>
+      <c r="AA12">
+        <v>19.19</v>
+      </c>
+      <c r="AB12">
+        <v>10.41</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>2.6</v>
+      </c>
+      <c r="AG12">
+        <v>24.3</v>
+      </c>
+      <c r="AH12">
+        <v>13.74</v>
+      </c>
+      <c r="AI12">
+        <v>2.79</v>
+      </c>
+      <c r="AJ12">
+        <v>2.1</v>
+      </c>
+      <c r="AK12">
+        <v>1.12</v>
+      </c>
+      <c r="AL12">
+        <v>23.07</v>
+      </c>
+      <c r="AM12">
+        <v>24.1</v>
+      </c>
+      <c r="AN12">
+        <v>3.48</v>
+      </c>
+      <c r="AO12">
+        <v>2.71</v>
+      </c>
+      <c r="AP12">
+        <v>1.37</v>
+      </c>
+      <c r="AQ12">
+        <v>1.08</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>14.31</v>
+      </c>
+      <c r="AT12">
+        <v>51.56</v>
+      </c>
+      <c r="AU12">
+        <v>21.59</v>
+      </c>
+      <c r="AV12">
+        <v>3.9</v>
+      </c>
+      <c r="AW12">
+        <v>6.19</v>
+      </c>
+      <c r="AX12">
+        <v>11.48</v>
+      </c>
+      <c r="AY12">
+        <v>0.66</v>
+      </c>
+      <c r="AZ12">
+        <v>45.37</v>
+      </c>
+      <c r="BA12">
+        <v>34.88</v>
+      </c>
+      <c r="BB12">
+        <v>5.5</v>
+      </c>
+      <c r="BC12">
+        <v>2.1</v>
+      </c>
+      <c r="BD12">
+        <v>8.17</v>
+      </c>
+      <c r="BE12">
+        <v>1.46</v>
+      </c>
+      <c r="BF12">
+        <v>7.12</v>
+      </c>
+      <c r="BG12">
+        <v>80.19</v>
+      </c>
+      <c r="BH12">
+        <v>80.19</v>
+      </c>
+      <c r="BI12">
+        <v>97.31</v>
+      </c>
+      <c r="BJ12">
+        <v>25</v>
+      </c>
+      <c r="BK12">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>133315</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <v>202012</v>
+      </c>
+      <c r="F13">
+        <v>2020</v>
+      </c>
+      <c r="G13">
+        <v>2209068584</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13">
+        <v>4128156000</v>
+      </c>
+      <c r="K13">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13">
+        <v>2690325</v>
+      </c>
+      <c r="N13">
+        <v>462</v>
+      </c>
+      <c r="O13">
+        <v>5900</v>
+      </c>
+      <c r="P13">
+        <v>44.22</v>
+      </c>
+      <c r="Q13">
+        <v>55.78</v>
+      </c>
+      <c r="R13">
+        <v>16.56</v>
+      </c>
+      <c r="S13">
+        <v>10.11</v>
+      </c>
+      <c r="T13">
+        <v>6.57</v>
+      </c>
+      <c r="U13">
+        <v>11.79</v>
+      </c>
+      <c r="V13">
+        <v>10.33</v>
+      </c>
+      <c r="W13">
+        <v>5.44</v>
+      </c>
+      <c r="X13">
+        <v>39.22</v>
+      </c>
+      <c r="Y13">
+        <v>37.25</v>
+      </c>
+      <c r="Z13">
+        <v>25.31</v>
+      </c>
+      <c r="AA13">
+        <v>31.6</v>
+      </c>
+      <c r="AB13">
+        <v>5.84</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1.17</v>
+      </c>
+      <c r="AG13">
+        <v>19.21</v>
+      </c>
+      <c r="AH13">
+        <v>19.09</v>
+      </c>
+      <c r="AI13">
+        <v>3.92</v>
+      </c>
+      <c r="AJ13">
+        <v>0.95</v>
+      </c>
+      <c r="AK13">
+        <v>2.71</v>
+      </c>
+      <c r="AL13">
+        <v>14.55</v>
+      </c>
+      <c r="AM13">
+        <v>10.68</v>
+      </c>
+      <c r="AN13">
+        <v>25.48</v>
+      </c>
+      <c r="AO13">
+        <v>2.24</v>
+      </c>
+      <c r="AP13">
+        <v>0.86</v>
+      </c>
+      <c r="AQ13">
+        <v>3.02</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>7.5</v>
+      </c>
+      <c r="AT13">
+        <v>57.32</v>
+      </c>
+      <c r="AU13">
+        <v>24.78</v>
+      </c>
+      <c r="AV13">
+        <v>4.79</v>
+      </c>
+      <c r="AW13">
+        <v>1.73</v>
+      </c>
+      <c r="AX13">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AY13">
+        <v>0.12</v>
+      </c>
+      <c r="AZ13">
+        <v>33.04</v>
+      </c>
+      <c r="BA13">
+        <v>55.23</v>
+      </c>
+      <c r="BB13">
+        <v>1.07</v>
+      </c>
+      <c r="BC13">
+        <v>0.92</v>
+      </c>
+      <c r="BD13">
+        <v>3.41</v>
+      </c>
+      <c r="BE13">
+        <v>4.03</v>
+      </c>
+      <c r="BF13">
+        <v>2.51</v>
+      </c>
+      <c r="BG13">
+        <v>65.58</v>
+      </c>
+      <c r="BH13">
+        <v>66.16</v>
+      </c>
+      <c r="BI13">
+        <v>73.27</v>
+      </c>
+      <c r="BJ13">
+        <v>32.4</v>
+      </c>
+      <c r="BK13">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>145354</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>202101</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+      <c r="G14">
+        <v>2209068584</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14">
+        <v>4128156000</v>
+      </c>
+      <c r="K14">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14">
+        <v>3768801</v>
+      </c>
+      <c r="N14">
+        <v>402</v>
+      </c>
+      <c r="O14">
+        <v>9607</v>
+      </c>
+      <c r="P14">
+        <v>32.67</v>
+      </c>
+      <c r="Q14">
+        <v>67.33</v>
+      </c>
+      <c r="R14">
+        <v>11.73</v>
+      </c>
+      <c r="S14">
+        <v>15.25</v>
+      </c>
+      <c r="T14">
+        <v>4.21</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>4.86</v>
+      </c>
+      <c r="W14">
+        <v>4.36</v>
+      </c>
+      <c r="X14">
+        <v>55.6</v>
+      </c>
+      <c r="Y14">
+        <v>13.1</v>
+      </c>
+      <c r="Z14">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="AA14">
+        <v>14.09</v>
+      </c>
+      <c r="AB14">
+        <v>1.05</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>2.97</v>
+      </c>
+      <c r="AG14">
+        <v>52.02</v>
+      </c>
+      <c r="AH14">
+        <v>5.44</v>
+      </c>
+      <c r="AI14">
+        <v>2.39</v>
+      </c>
+      <c r="AJ14">
+        <v>3.71</v>
+      </c>
+      <c r="AK14">
+        <v>2.06</v>
+      </c>
+      <c r="AL14">
+        <v>5.01</v>
+      </c>
+      <c r="AM14">
+        <v>20.41</v>
+      </c>
+      <c r="AN14">
+        <v>1.74</v>
+      </c>
+      <c r="AO14">
+        <v>4.25</v>
+      </c>
+      <c r="AP14">
+        <v>1.12</v>
+      </c>
+      <c r="AQ14">
+        <v>0.22</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>8.9</v>
+      </c>
+      <c r="AT14">
+        <v>21.9</v>
+      </c>
+      <c r="AU14">
+        <v>62.51</v>
+      </c>
+      <c r="AV14">
+        <v>3.71</v>
+      </c>
+      <c r="AW14">
+        <v>1.65</v>
+      </c>
+      <c r="AX14">
+        <v>6.44</v>
+      </c>
+      <c r="AY14">
+        <v>0.68</v>
+      </c>
+      <c r="AZ14">
+        <v>64.83</v>
+      </c>
+      <c r="BA14">
+        <v>18.65</v>
+      </c>
+      <c r="BB14">
+        <v>5.77</v>
+      </c>
+      <c r="BC14">
+        <v>3.61</v>
+      </c>
+      <c r="BD14">
+        <v>2.26</v>
+      </c>
+      <c r="BE14">
+        <v>2.48</v>
+      </c>
+      <c r="BF14">
+        <v>3.96</v>
+      </c>
+      <c r="BG14">
+        <v>42.64</v>
+      </c>
+      <c r="BH14">
+        <v>45.88</v>
+      </c>
+      <c r="BI14">
+        <v>56.49</v>
+      </c>
+      <c r="BJ14">
+        <v>22.6</v>
+      </c>
+      <c r="BK14">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>157391</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <v>202102</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+      <c r="G15">
+        <v>2209068584</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15">
+        <v>4128156000</v>
+      </c>
+      <c r="K15">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15">
+        <v>2445776</v>
+      </c>
+      <c r="N15">
+        <v>474</v>
+      </c>
+      <c r="O15">
+        <v>5208</v>
+      </c>
+      <c r="P15">
+        <v>67.25</v>
+      </c>
+      <c r="Q15">
+        <v>32.75</v>
+      </c>
+      <c r="R15">
+        <v>7.7</v>
+      </c>
+      <c r="S15">
+        <v>11.37</v>
+      </c>
+      <c r="T15">
+        <v>19.44</v>
+      </c>
+      <c r="U15">
+        <v>23.21</v>
+      </c>
+      <c r="V15">
+        <v>18.28</v>
+      </c>
+      <c r="W15">
+        <v>5.8</v>
+      </c>
+      <c r="X15">
+        <v>14.19</v>
+      </c>
+      <c r="Y15">
+        <v>24.86</v>
+      </c>
+      <c r="Z15">
+        <v>45.12</v>
+      </c>
+      <c r="AA15">
+        <v>22.72</v>
+      </c>
+      <c r="AB15">
+        <v>7.3</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>4.74</v>
+      </c>
+      <c r="AG15">
+        <v>31.43</v>
+      </c>
+      <c r="AH15">
+        <v>14.51</v>
+      </c>
+      <c r="AI15">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ15">
+        <v>11.09</v>
+      </c>
+      <c r="AK15">
+        <v>3.11</v>
+      </c>
+      <c r="AL15">
+        <v>10.77</v>
+      </c>
+      <c r="AM15">
+        <v>8</v>
+      </c>
+      <c r="AN15">
+        <v>4.78</v>
+      </c>
+      <c r="AO15">
+        <v>3.26</v>
+      </c>
+      <c r="AP15">
+        <v>0.21</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>25.54</v>
+      </c>
+      <c r="AT15">
+        <v>44.31</v>
+      </c>
+      <c r="AU15">
+        <v>24.09</v>
+      </c>
+      <c r="AV15">
+        <v>2.18</v>
+      </c>
+      <c r="AW15">
+        <v>3.67</v>
+      </c>
+      <c r="AX15">
+        <v>7.51</v>
+      </c>
+      <c r="AY15">
+        <v>3.97</v>
+      </c>
+      <c r="AZ15">
+        <v>46.06</v>
+      </c>
+      <c r="BA15">
+        <v>20.89</v>
+      </c>
+      <c r="BB15">
+        <v>19.91</v>
+      </c>
+      <c r="BC15">
+        <v>1.66</v>
+      </c>
+      <c r="BD15">
+        <v>10.26</v>
+      </c>
+      <c r="BE15">
+        <v>0.96</v>
+      </c>
+      <c r="BF15">
+        <v>3.22</v>
+      </c>
+      <c r="BG15">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="BH15">
+        <v>76.64</v>
+      </c>
+      <c r="BI15">
+        <v>94.69</v>
+      </c>
+      <c r="BJ15">
+        <v>29.7</v>
+      </c>
+      <c r="BK15">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>169474</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16">
+        <v>202103</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+      <c r="G16">
+        <v>2209068584</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16">
+        <v>4128156000</v>
+      </c>
+      <c r="K16">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16">
+        <v>4774233</v>
+      </c>
+      <c r="N16">
+        <v>729</v>
+      </c>
+      <c r="O16">
+        <v>6652</v>
+      </c>
+      <c r="P16">
+        <v>33.81</v>
+      </c>
+      <c r="Q16">
+        <v>66.19</v>
+      </c>
+      <c r="R16">
+        <v>21</v>
+      </c>
+      <c r="S16">
+        <v>11.4</v>
+      </c>
+      <c r="T16">
+        <v>8.52</v>
+      </c>
+      <c r="U16">
+        <v>12.44</v>
+      </c>
+      <c r="V16">
+        <v>3.9</v>
+      </c>
+      <c r="W16">
+        <v>2.73</v>
+      </c>
+      <c r="X16">
+        <v>40.01</v>
+      </c>
+      <c r="Y16">
+        <v>18.04</v>
+      </c>
+      <c r="Z16">
+        <v>55.34</v>
+      </c>
+      <c r="AA16">
+        <v>18.73</v>
+      </c>
+      <c r="AB16">
+        <v>7.88</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0.92</v>
+      </c>
+      <c r="AG16">
+        <v>17.44</v>
+      </c>
+      <c r="AH16">
+        <v>12.25</v>
+      </c>
+      <c r="AI16">
+        <v>1.98</v>
+      </c>
+      <c r="AJ16">
+        <v>34.11</v>
+      </c>
+      <c r="AK16">
+        <v>1.32</v>
+      </c>
+      <c r="AL16">
+        <v>12.6</v>
+      </c>
+      <c r="AM16">
+        <v>17.1</v>
+      </c>
+      <c r="AN16">
+        <v>1.17</v>
+      </c>
+      <c r="AO16">
+        <v>1.1</v>
+      </c>
+      <c r="AP16">
+        <v>0.11</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>7.04</v>
+      </c>
+      <c r="AT16">
+        <v>72.7</v>
+      </c>
+      <c r="AU16">
+        <v>15.81</v>
+      </c>
+      <c r="AV16">
+        <v>2.77</v>
+      </c>
+      <c r="AW16">
+        <v>1.57</v>
+      </c>
+      <c r="AX16">
+        <v>4.34</v>
+      </c>
+      <c r="AY16">
+        <v>1.74</v>
+      </c>
+      <c r="AZ16">
+        <v>41.89</v>
+      </c>
+      <c r="BA16">
+        <v>14.27</v>
+      </c>
+      <c r="BB16">
+        <v>36.48</v>
+      </c>
+      <c r="BC16">
+        <v>1.28</v>
+      </c>
+      <c r="BD16">
+        <v>3.56</v>
+      </c>
+      <c r="BE16">
+        <v>0.77</v>
+      </c>
+      <c r="BF16">
+        <v>0.66</v>
+      </c>
+      <c r="BG16">
+        <v>78.97</v>
+      </c>
+      <c r="BH16">
+        <v>81.67</v>
+      </c>
+      <c r="BI16">
+        <v>96.52</v>
+      </c>
+      <c r="BJ16">
+        <v>18.7</v>
+      </c>
+      <c r="BK16">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>181612</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17">
+        <v>202104</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+      <c r="G17">
+        <v>2209068584</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17">
+        <v>4128156000</v>
+      </c>
+      <c r="K17">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17">
+        <v>4413327</v>
+      </c>
+      <c r="N17">
+        <v>895</v>
+      </c>
+      <c r="O17">
+        <v>4962</v>
+      </c>
+      <c r="P17">
+        <v>51.3</v>
+      </c>
+      <c r="Q17">
+        <v>48.7</v>
+      </c>
+      <c r="R17">
+        <v>34.72</v>
+      </c>
+      <c r="S17">
+        <v>11.61</v>
+      </c>
+      <c r="T17">
+        <v>11.36</v>
+      </c>
+      <c r="U17">
+        <v>7.89</v>
+      </c>
+      <c r="V17">
+        <v>11.66</v>
+      </c>
+      <c r="W17">
+        <v>8.77</v>
+      </c>
+      <c r="X17">
+        <v>13.99</v>
+      </c>
+      <c r="Y17">
+        <v>24.02</v>
+      </c>
+      <c r="Z17">
+        <v>39.78</v>
+      </c>
+      <c r="AA17">
+        <v>26.12</v>
+      </c>
+      <c r="AB17">
+        <v>10.09</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>3.13</v>
+      </c>
+      <c r="AG17">
+        <v>34.73</v>
+      </c>
+      <c r="AH17">
+        <v>20.93</v>
+      </c>
+      <c r="AI17">
+        <v>0.19</v>
+      </c>
+      <c r="AJ17">
+        <v>3.02</v>
+      </c>
+      <c r="AK17">
+        <v>0.44</v>
+      </c>
+      <c r="AL17">
+        <v>17.39</v>
+      </c>
+      <c r="AM17">
+        <v>15.15</v>
+      </c>
+      <c r="AN17">
+        <v>3.84</v>
+      </c>
+      <c r="AO17">
+        <v>1.16</v>
+      </c>
+      <c r="AP17">
+        <v>2.59</v>
+      </c>
+      <c r="AQ17">
+        <v>0.6</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>14.78</v>
+      </c>
+      <c r="AT17">
+        <v>44.95</v>
+      </c>
+      <c r="AU17">
+        <v>26.62</v>
+      </c>
+      <c r="AV17">
+        <v>7.76</v>
+      </c>
+      <c r="AW17">
+        <v>2.7</v>
+      </c>
+      <c r="AX17">
+        <v>10.27</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>54.86</v>
+      </c>
+      <c r="BA17">
+        <v>28.38</v>
+      </c>
+      <c r="BB17">
+        <v>3.86</v>
+      </c>
+      <c r="BC17">
+        <v>2.63</v>
+      </c>
+      <c r="BD17">
+        <v>5.65</v>
+      </c>
+      <c r="BE17">
+        <v>1.19</v>
+      </c>
+      <c r="BF17">
+        <v>5.13</v>
+      </c>
+      <c r="BG17">
+        <v>72.42</v>
+      </c>
+      <c r="BH17">
+        <v>72.72</v>
+      </c>
+      <c r="BI17">
+        <v>96.41</v>
+      </c>
+      <c r="BJ17">
+        <v>34.4</v>
+      </c>
+      <c r="BK17">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>193778</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18">
+        <v>202105</v>
+      </c>
+      <c r="F18">
+        <v>2021</v>
+      </c>
+      <c r="G18">
+        <v>2209068584</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18">
+        <v>4128156000</v>
+      </c>
+      <c r="K18">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18">
+        <v>3844290</v>
+      </c>
+      <c r="N18">
+        <v>801</v>
+      </c>
+      <c r="O18">
+        <v>4835</v>
+      </c>
+      <c r="P18">
+        <v>48.68</v>
+      </c>
+      <c r="Q18">
+        <v>51.32</v>
+      </c>
+      <c r="R18">
+        <v>31.61</v>
+      </c>
+      <c r="S18">
+        <v>11.48</v>
+      </c>
+      <c r="T18">
+        <v>19.55</v>
+      </c>
+      <c r="U18">
+        <v>8.49</v>
+      </c>
+      <c r="V18">
+        <v>7.6</v>
+      </c>
+      <c r="W18">
+        <v>5.71</v>
+      </c>
+      <c r="X18">
+        <v>15.56</v>
+      </c>
+      <c r="Y18">
+        <v>20.2</v>
+      </c>
+      <c r="Z18">
+        <v>42.54</v>
+      </c>
+      <c r="AA18">
+        <v>28.6</v>
+      </c>
+      <c r="AB18">
+        <v>8.66</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>6.78</v>
+      </c>
+      <c r="AG18">
+        <v>23.11</v>
+      </c>
+      <c r="AH18">
+        <v>21.61</v>
+      </c>
+      <c r="AI18">
+        <v>3.05</v>
+      </c>
+      <c r="AJ18">
+        <v>2.03</v>
+      </c>
+      <c r="AK18">
+        <v>2.23</v>
+      </c>
+      <c r="AL18">
+        <v>17.82</v>
+      </c>
+      <c r="AM18">
+        <v>19.76</v>
+      </c>
+      <c r="AN18">
+        <v>2.66</v>
+      </c>
+      <c r="AO18">
+        <v>0.95</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0.21</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>16.17</v>
+      </c>
+      <c r="AT18">
+        <v>46.64</v>
+      </c>
+      <c r="AU18">
+        <v>25.26</v>
+      </c>
+      <c r="AV18">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="AW18">
+        <v>2.44</v>
+      </c>
+      <c r="AX18">
+        <v>7.8</v>
+      </c>
+      <c r="AY18">
+        <v>0.63</v>
+      </c>
+      <c r="AZ18">
+        <v>58.42</v>
+      </c>
+      <c r="BA18">
+        <v>28.24</v>
+      </c>
+      <c r="BB18">
+        <v>3.49</v>
+      </c>
+      <c r="BC18">
+        <v>1.42</v>
+      </c>
+      <c r="BD18">
+        <v>4.63</v>
+      </c>
+      <c r="BE18">
+        <v>1.31</v>
+      </c>
+      <c r="BF18">
+        <v>1.34</v>
+      </c>
+      <c r="BG18">
+        <v>73.39</v>
+      </c>
+      <c r="BH18">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="BI18">
+        <v>96.34999999999999</v>
+      </c>
+      <c r="BJ18">
+        <v>32.5</v>
+      </c>
+      <c r="BK18">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>205975</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19">
+        <v>202106</v>
+      </c>
+      <c r="F19">
+        <v>2021</v>
+      </c>
+      <c r="G19">
+        <v>2209068584</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19">
+        <v>4128156000</v>
+      </c>
+      <c r="K19">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19">
+        <v>2073787</v>
+      </c>
+      <c r="N19">
+        <v>473</v>
+      </c>
+      <c r="O19">
+        <v>4380</v>
+      </c>
+      <c r="P19">
+        <v>58.5</v>
+      </c>
+      <c r="Q19">
+        <v>41.5</v>
+      </c>
+      <c r="R19">
+        <v>32.24</v>
+      </c>
+      <c r="S19">
+        <v>19.18</v>
+      </c>
+      <c r="T19">
+        <v>12</v>
+      </c>
+      <c r="U19">
+        <v>8.25</v>
+      </c>
+      <c r="V19">
+        <v>10.27</v>
+      </c>
+      <c r="W19">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X19">
+        <v>9.26</v>
+      </c>
+      <c r="Y19">
+        <v>15.48</v>
+      </c>
+      <c r="Z19">
+        <v>42.33</v>
+      </c>
+      <c r="AA19">
+        <v>28.72</v>
+      </c>
+      <c r="AB19">
+        <v>13.47</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>3.81</v>
+      </c>
+      <c r="AG19">
+        <v>17.3</v>
+      </c>
+      <c r="AH19">
+        <v>18.13</v>
+      </c>
+      <c r="AI19">
+        <v>4.41</v>
+      </c>
+      <c r="AJ19">
+        <v>15.55</v>
+      </c>
+      <c r="AK19">
+        <v>0.79</v>
+      </c>
+      <c r="AL19">
+        <v>22.88</v>
+      </c>
+      <c r="AM19">
+        <v>11.24</v>
+      </c>
+      <c r="AN19">
+        <v>3.48</v>
+      </c>
+      <c r="AO19">
+        <v>2.41</v>
+      </c>
+      <c r="AP19">
+        <v>1.65</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>12.1</v>
+      </c>
+      <c r="AT19">
+        <v>55.22</v>
+      </c>
+      <c r="AU19">
+        <v>15.75</v>
+      </c>
+      <c r="AV19">
+        <v>12.63</v>
+      </c>
+      <c r="AW19">
+        <v>2.64</v>
+      </c>
+      <c r="AX19">
+        <v>10.83</v>
+      </c>
+      <c r="AY19">
+        <v>1.73</v>
+      </c>
+      <c r="AZ19">
+        <v>40.46</v>
+      </c>
+      <c r="BA19">
+        <v>28.03</v>
+      </c>
+      <c r="BB19">
+        <v>12.33</v>
+      </c>
+      <c r="BC19">
+        <v>6.62</v>
+      </c>
+      <c r="BD19">
+        <v>8.9</v>
+      </c>
+      <c r="BE19">
+        <v>2.49</v>
+      </c>
+      <c r="BF19">
+        <v>2.16</v>
+      </c>
+      <c r="BG19">
+        <v>76.28</v>
+      </c>
+      <c r="BH19">
+        <v>76.28</v>
+      </c>
+      <c r="BI19">
+        <v>98.81</v>
+      </c>
+      <c r="BJ19">
+        <v>28.2</v>
+      </c>
+      <c r="BK19">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>218204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20">
+        <v>202107</v>
+      </c>
+      <c r="F20">
+        <v>2021</v>
+      </c>
+      <c r="G20">
+        <v>2209068584</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20">
+        <v>4128156000</v>
+      </c>
+      <c r="K20">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20">
+        <v>209953</v>
+      </c>
+      <c r="N20">
+        <v>63</v>
+      </c>
+      <c r="O20">
+        <v>3267</v>
+      </c>
+      <c r="P20">
+        <v>40.56</v>
+      </c>
+      <c r="Q20">
+        <v>59.44</v>
+      </c>
+      <c r="R20">
+        <v>39.8</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>12.76</v>
+      </c>
+      <c r="W20">
+        <v>27.81</v>
+      </c>
+      <c r="X20">
+        <v>19.64</v>
+      </c>
+      <c r="Y20">
+        <v>35.2</v>
+      </c>
+      <c r="Z20">
+        <v>58.42</v>
+      </c>
+      <c r="AA20">
+        <v>6.38</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>25.26</v>
+      </c>
+      <c r="AH20">
+        <v>2.55</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>10.46</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>2.81</v>
+      </c>
+      <c r="AM20">
+        <v>28.32</v>
+      </c>
+      <c r="AN20">
+        <v>30.61</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>4.08</v>
+      </c>
+      <c r="AT20">
+        <v>35.71</v>
+      </c>
+      <c r="AU20">
+        <v>60.2</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>6.38</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>17.09</v>
+      </c>
+      <c r="BA20">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="BB20">
+        <v>6.38</v>
+      </c>
+      <c r="BC20">
+        <v>4.08</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="BH20">
+        <v>78.56999999999999</v>
+      </c>
+      <c r="BI20">
+        <v>97.45</v>
+      </c>
+      <c r="BJ20">
+        <v>41.7</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>336307</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21">
         <v>202204</v>
       </c>
-      <c r="D2">
+      <c r="F21">
         <v>2022</v>
       </c>
-      <c r="E2">
-        <v>126599133</v>
-      </c>
-      <c r="F2">
+      <c r="G21">
+        <v>2029505422</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21">
+        <v>4128156000</v>
+      </c>
+      <c r="K21">
+        <v>81.21212121212122</v>
+      </c>
+      <c r="L21" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21">
+        <v>10004008</v>
+      </c>
+      <c r="N21">
+        <v>148</v>
+      </c>
+      <c r="O21">
+        <v>68596</v>
+      </c>
+      <c r="P21">
+        <v>82</v>
+      </c>
+      <c r="Q21">
+        <v>18</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>28.31</v>
+      </c>
+      <c r="T21">
+        <v>29.09</v>
+      </c>
+      <c r="U21">
+        <v>16</v>
+      </c>
+      <c r="V21">
+        <v>1.4</v>
+      </c>
+      <c r="W21">
+        <v>7.19</v>
+      </c>
+      <c r="X21">
+        <v>18</v>
+      </c>
+      <c r="Y21">
+        <v>10.09</v>
+      </c>
+      <c r="Z21">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="AA21">
+        <v>17.17</v>
+      </c>
+      <c r="AB21">
+        <v>1.58</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0.31</v>
+      </c>
+      <c r="AG21">
+        <v>16.61</v>
+      </c>
+      <c r="AH21">
+        <v>2.19</v>
+      </c>
+      <c r="AI21">
+        <v>15.58</v>
+      </c>
+      <c r="AJ21">
+        <v>1.41</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>29.48</v>
+      </c>
+      <c r="AM21">
+        <v>31.87</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>2.54</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1.72</v>
+      </c>
+      <c r="AT21">
+        <v>42.02</v>
+      </c>
+      <c r="AU21">
+        <v>1.22</v>
+      </c>
+      <c r="AV21">
+        <v>23.76</v>
+      </c>
+      <c r="AW21">
+        <v>31.29</v>
+      </c>
+      <c r="AX21">
+        <v>0.31</v>
+      </c>
+      <c r="AY21">
+        <v>19.67</v>
+      </c>
+      <c r="AZ21">
+        <v>40.43</v>
+      </c>
+      <c r="BA21">
+        <v>20.06</v>
+      </c>
+      <c r="BB21">
+        <v>15.89</v>
+      </c>
+      <c r="BC21">
+        <v>3.65</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0.31</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>336308</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <v>202204</v>
+      </c>
+      <c r="F22">
+        <v>2022</v>
+      </c>
+      <c r="G22">
         <v>6354500767</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22">
+        <v>4128156000</v>
+      </c>
+      <c r="K22">
+        <v>83.40909090909091</v>
+      </c>
+      <c r="L22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22">
+        <v>5493965</v>
+      </c>
+      <c r="N22">
+        <v>78</v>
+      </c>
+      <c r="O22">
+        <v>70880</v>
+      </c>
+      <c r="P22">
+        <v>83.89</v>
+      </c>
+      <c r="Q22">
+        <v>16.11</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>16.14</v>
+      </c>
+      <c r="U22">
+        <v>3.72</v>
+      </c>
+      <c r="V22">
+        <v>51.94</v>
+      </c>
+      <c r="W22">
+        <v>12.09</v>
+      </c>
+      <c r="X22">
+        <v>16.11</v>
+      </c>
+      <c r="Y22">
+        <v>13.03</v>
+      </c>
+      <c r="Z22">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2">
+      <c r="AA22">
+        <v>13.55</v>
+      </c>
+      <c r="AB22">
+        <v>39.42</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1.03</v>
+      </c>
+      <c r="AG22">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="AH22">
+        <v>12.42</v>
+      </c>
+      <c r="AI22">
+        <v>22.45</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1.03</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>49.12</v>
+      </c>
+      <c r="AU22">
+        <v>45.19</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>4.66</v>
+      </c>
+      <c r="AX22">
+        <v>10.86</v>
+      </c>
+      <c r="AY22">
+        <v>3.7</v>
+      </c>
+      <c r="AZ22">
+        <v>56.78</v>
+      </c>
+      <c r="BA22">
+        <v>24</v>
+      </c>
+      <c r="BB22">
+        <v>4.66</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>24</v>
+      </c>
+      <c r="BE22">
+        <v>1.03</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>348876</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23">
+        <v>202205</v>
+      </c>
+      <c r="F23">
+        <v>2022</v>
+      </c>
+      <c r="G23">
+        <v>2029505422</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23">
+        <v>4128156000</v>
+      </c>
+      <c r="K23">
+        <v>81.21212121212122</v>
+      </c>
+      <c r="L23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23">
+        <v>71136322</v>
+      </c>
+      <c r="N23">
+        <v>342</v>
+      </c>
+      <c r="O23">
+        <v>213477</v>
+      </c>
+      <c r="P23">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>17.68</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>22.64</v>
+      </c>
+      <c r="T23">
+        <v>35.94</v>
+      </c>
+      <c r="U23">
+        <v>4.48</v>
+      </c>
+      <c r="V23">
+        <v>7.67</v>
+      </c>
+      <c r="W23">
+        <v>11.59</v>
+      </c>
+      <c r="X23">
+        <v>17.68</v>
+      </c>
+      <c r="Y23">
+        <v>1.7</v>
+      </c>
+      <c r="Z23">
+        <v>39.34</v>
+      </c>
+      <c r="AA23">
+        <v>35.56</v>
+      </c>
+      <c r="AB23">
+        <v>23.4</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0.13</v>
+      </c>
+      <c r="AG23">
+        <v>21.59</v>
+      </c>
+      <c r="AH23">
+        <v>2.36</v>
+      </c>
+      <c r="AI23">
+        <v>13.69</v>
+      </c>
+      <c r="AJ23">
+        <v>0.06</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>39.07</v>
+      </c>
+      <c r="AM23">
+        <v>16.9</v>
+      </c>
+      <c r="AN23">
+        <v>2.36</v>
+      </c>
+      <c r="AO23">
+        <v>3.82</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>3.05</v>
+      </c>
+      <c r="AT23">
+        <v>36.06</v>
+      </c>
+      <c r="AU23">
+        <v>1.27</v>
+      </c>
+      <c r="AV23">
+        <v>53.75</v>
+      </c>
+      <c r="AW23">
+        <v>5.88</v>
+      </c>
+      <c r="AX23">
+        <v>57.44</v>
+      </c>
+      <c r="AY23">
+        <v>2.1</v>
+      </c>
+      <c r="AZ23">
+        <v>7.66</v>
+      </c>
+      <c r="BA23">
+        <v>13.27</v>
+      </c>
+      <c r="BB23">
+        <v>19.51</v>
+      </c>
+      <c r="BC23">
+        <v>0.01</v>
+      </c>
+      <c r="BD23">
+        <v>0.04</v>
+      </c>
+      <c r="BE23">
+        <v>0.16</v>
+      </c>
+      <c r="BF23">
+        <v>19.59</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>11.4</v>
+      </c>
+      <c r="BK23">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>348877</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24">
+        <v>202205</v>
+      </c>
+      <c r="F24">
+        <v>2022</v>
+      </c>
+      <c r="G24">
+        <v>5769901422</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24">
+        <v>4128156000</v>
+      </c>
+      <c r="K24">
+        <v>24.12727272727273</v>
+      </c>
+      <c r="L24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24">
+        <v>106658</v>
+      </c>
+      <c r="N24">
+        <v>26</v>
+      </c>
+      <c r="O24">
+        <v>4000</v>
+      </c>
+      <c r="P24">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>31.5</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>43.5</v>
+      </c>
+      <c r="W24">
+        <v>25</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>25</v>
+      </c>
+      <c r="Z24">
+        <v>25</v>
+      </c>
+      <c r="AA24">
+        <v>50</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>18.5</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>25</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>56.5</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>25</v>
+      </c>
+      <c r="AT24">
+        <v>18.5</v>
+      </c>
+      <c r="AU24">
+        <v>56.5</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>25</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>18.5</v>
+      </c>
+      <c r="BA24">
+        <v>56.5</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>25</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>348878</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <v>202205</v>
+      </c>
+      <c r="F25">
+        <v>2022</v>
+      </c>
+      <c r="G25">
+        <v>6354500767</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25">
+        <v>4128156000</v>
+      </c>
+      <c r="K25">
         <v>83.40909090909091</v>
       </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2">
-        <v>4128156000</v>
-      </c>
-      <c r="M2">
-        <v>5493965</v>
-      </c>
-      <c r="N2">
-        <v>78</v>
-      </c>
-      <c r="O2">
-        <v>70880</v>
-      </c>
-      <c r="P2">
-        <v>1.03</v>
-      </c>
-      <c r="Q2">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="R2">
-        <v>12.42</v>
-      </c>
-      <c r="S2">
-        <v>22.45</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>1.03</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>49.12</v>
-      </c>
-      <c r="AE2">
-        <v>45.19</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="1">
-        <v>307664</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>202205</v>
-      </c>
-      <c r="D3">
-        <v>2022</v>
-      </c>
-      <c r="E3">
-        <v>126599133</v>
-      </c>
-      <c r="F3">
-        <v>6354500767</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <v>83.40909090909091</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3">
-        <v>4128156000</v>
-      </c>
-      <c r="M3">
+      <c r="L25" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25">
         <v>34376814</v>
       </c>
-      <c r="N3">
+      <c r="N25">
         <v>216</v>
       </c>
-      <c r="O3">
+      <c r="O25">
         <v>160705</v>
       </c>
-      <c r="P3">
+      <c r="P25">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>1.96</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>24.41</v>
+      </c>
+      <c r="T25">
+        <v>52.22</v>
+      </c>
+      <c r="U25">
+        <v>3.61</v>
+      </c>
+      <c r="V25">
+        <v>0.09</v>
+      </c>
+      <c r="W25">
+        <v>17.7</v>
+      </c>
+      <c r="X25">
+        <v>1.96</v>
+      </c>
+      <c r="Y25">
+        <v>38.4</v>
+      </c>
+      <c r="Z25">
+        <v>27.99</v>
+      </c>
+      <c r="AA25">
+        <v>2.88</v>
+      </c>
+      <c r="AB25">
+        <v>30.74</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>11.57</v>
       </c>
-      <c r="Q3">
+      <c r="AG25">
         <v>13.5</v>
       </c>
-      <c r="R3">
+      <c r="AH25">
         <v>17.63</v>
       </c>
-      <c r="S3">
+      <c r="AI25">
         <v>15.97</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>4.21</v>
       </c>
-      <c r="V3">
+      <c r="AL25">
         <v>17.73</v>
       </c>
-      <c r="W3">
+      <c r="AM25">
         <v>17.9</v>
       </c>
-      <c r="X3">
+      <c r="AN25">
         <v>1.46</v>
       </c>
-      <c r="Y3">
+      <c r="AO25">
         <v>0.05</v>
       </c>
-      <c r="Z3">
+      <c r="AP25">
         <v>0.08</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
         <v>22.92</v>
       </c>
-      <c r="AD3">
+      <c r="AT25">
         <v>15.65</v>
       </c>
-      <c r="AE3">
+      <c r="AU25">
         <v>41.65</v>
       </c>
-      <c r="AF3">
+      <c r="AV25">
         <v>3.39</v>
       </c>
-      <c r="AG3">
+      <c r="AW25">
         <v>16.3</v>
+      </c>
+      <c r="AX25">
+        <v>36.55</v>
+      </c>
+      <c r="AY25">
+        <v>3.33</v>
+      </c>
+      <c r="AZ25">
+        <v>10.63</v>
+      </c>
+      <c r="BA25">
+        <v>34.51</v>
+      </c>
+      <c r="BB25">
+        <v>14.92</v>
+      </c>
+      <c r="BC25">
+        <v>0.05</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>5.37</v>
+      </c>
+      <c r="BF25">
+        <v>29.25</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4128156000.xlsx
+++ b/시장분석용_정보/시장분석용_4128156000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -551,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,64 +603,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>2546</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>202001</v>
@@ -720,10 +624,10 @@
         <v>2209068584</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>4128156000</v>
@@ -732,7 +636,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L2">
         <v>9034074</v>
@@ -744,117 +648,69 @@
         <v>10641</v>
       </c>
       <c r="O2">
-        <v>47.64</v>
+        <v>0.67</v>
       </c>
       <c r="P2">
-        <v>52.36</v>
+        <v>19.19</v>
       </c>
       <c r="Q2">
-        <v>24.17</v>
+        <v>32.78</v>
       </c>
       <c r="R2">
-        <v>15.22</v>
+        <v>6.06</v>
       </c>
       <c r="S2">
-        <v>7.93</v>
+        <v>1.68</v>
       </c>
       <c r="T2">
-        <v>11.59</v>
+        <v>2.58</v>
       </c>
       <c r="U2">
-        <v>12.44</v>
+        <v>13.98</v>
       </c>
       <c r="V2">
-        <v>24.42</v>
+        <v>21.74</v>
       </c>
       <c r="W2">
-        <v>4.23</v>
+        <v>0.55</v>
       </c>
       <c r="X2">
-        <v>26.79</v>
+        <v>0.77</v>
       </c>
       <c r="Y2">
-        <v>35.07</v>
+        <v>3.83</v>
       </c>
       <c r="Z2">
-        <v>26.94</v>
+        <v>0.15</v>
       </c>
       <c r="AA2">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>18.78</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>52.7</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>17.39</v>
       </c>
       <c r="AE2">
-        <v>0.67</v>
+        <v>4.8</v>
       </c>
       <c r="AF2">
-        <v>19.19</v>
-      </c>
-      <c r="AG2">
-        <v>32.78</v>
-      </c>
-      <c r="AH2">
-        <v>6.06</v>
-      </c>
-      <c r="AI2">
-        <v>1.68</v>
-      </c>
-      <c r="AJ2">
-        <v>2.58</v>
-      </c>
-      <c r="AK2">
-        <v>13.98</v>
-      </c>
-      <c r="AL2">
-        <v>21.74</v>
-      </c>
-      <c r="AM2">
-        <v>0.55</v>
-      </c>
-      <c r="AN2">
-        <v>0.77</v>
-      </c>
-      <c r="AO2">
-        <v>3.83</v>
-      </c>
-      <c r="AP2">
-        <v>0.15</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>18.78</v>
-      </c>
-      <c r="AS2">
-        <v>52.7</v>
-      </c>
-      <c r="AT2">
-        <v>17.39</v>
-      </c>
-      <c r="AU2">
-        <v>4.8</v>
-      </c>
-      <c r="AV2">
         <v>2.35</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>14306</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>202002</v>
@@ -866,10 +722,10 @@
         <v>2209068584</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>4128156000</v>
@@ -878,7 +734,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L3">
         <v>5182010</v>
@@ -890,117 +746,69 @@
         <v>8634</v>
       </c>
       <c r="O3">
-        <v>59.45</v>
+        <v>0.77</v>
       </c>
       <c r="P3">
-        <v>40.55</v>
+        <v>38.39</v>
       </c>
       <c r="Q3">
-        <v>27.94</v>
+        <v>11.28</v>
       </c>
       <c r="R3">
-        <v>9.67</v>
+        <v>2.47</v>
       </c>
       <c r="S3">
-        <v>9.859999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="T3">
-        <v>11.22</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>26.84</v>
+        <v>28.55</v>
       </c>
       <c r="V3">
-        <v>1.86</v>
+        <v>13.46</v>
       </c>
       <c r="W3">
-        <v>12.61</v>
+        <v>1.81</v>
       </c>
       <c r="X3">
-        <v>12.39</v>
+        <v>2.56</v>
       </c>
       <c r="Y3">
-        <v>48.46</v>
+        <v>3.32</v>
       </c>
       <c r="Z3">
-        <v>28.72</v>
+        <v>3.27</v>
       </c>
       <c r="AA3">
-        <v>10.42</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>54.87</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>15.94</v>
       </c>
       <c r="AE3">
-        <v>0.77</v>
+        <v>6.43</v>
       </c>
       <c r="AF3">
-        <v>38.39</v>
-      </c>
-      <c r="AG3">
-        <v>11.28</v>
-      </c>
-      <c r="AH3">
-        <v>2.47</v>
-      </c>
-      <c r="AI3">
-        <v>0.72</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>28.55</v>
-      </c>
-      <c r="AL3">
-        <v>13.46</v>
-      </c>
-      <c r="AM3">
-        <v>1.81</v>
-      </c>
-      <c r="AN3">
-        <v>2.56</v>
-      </c>
-      <c r="AO3">
-        <v>3.32</v>
-      </c>
-      <c r="AP3">
-        <v>3.27</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>14.8</v>
-      </c>
-      <c r="AS3">
-        <v>54.87</v>
-      </c>
-      <c r="AT3">
-        <v>15.94</v>
-      </c>
-      <c r="AU3">
-        <v>6.43</v>
-      </c>
-      <c r="AV3">
         <v>1.37</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>26065</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>202003</v>
@@ -1012,10 +820,10 @@
         <v>2209068584</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>4128156000</v>
@@ -1024,7 +832,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>3282014</v>
@@ -1036,117 +844,69 @@
         <v>7788</v>
       </c>
       <c r="O4">
-        <v>70.95999999999999</v>
+        <v>2.55</v>
       </c>
       <c r="P4">
-        <v>29.04</v>
+        <v>48.87</v>
       </c>
       <c r="Q4">
-        <v>13.14</v>
+        <v>11.94</v>
       </c>
       <c r="R4">
-        <v>9.69</v>
+        <v>0.24</v>
       </c>
       <c r="S4">
-        <v>8.32</v>
+        <v>1.57</v>
       </c>
       <c r="T4">
-        <v>29.17</v>
+        <v>0.76</v>
       </c>
       <c r="U4">
-        <v>19.15</v>
+        <v>18.41</v>
       </c>
       <c r="V4">
-        <v>4.63</v>
+        <v>13.68</v>
       </c>
       <c r="W4">
-        <v>15.9</v>
+        <v>1.74</v>
       </c>
       <c r="X4">
-        <v>33.35</v>
+        <v>0.24</v>
       </c>
       <c r="Y4">
-        <v>22.31</v>
+        <v>2.93</v>
       </c>
       <c r="Z4">
-        <v>36.26</v>
+        <v>1.65</v>
       </c>
       <c r="AA4">
-        <v>8.08</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>27.11</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>21.29</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>35.99</v>
       </c>
       <c r="AE4">
-        <v>2.55</v>
+        <v>8.94</v>
       </c>
       <c r="AF4">
-        <v>48.87</v>
-      </c>
-      <c r="AG4">
-        <v>11.94</v>
-      </c>
-      <c r="AH4">
-        <v>0.24</v>
-      </c>
-      <c r="AI4">
-        <v>1.57</v>
-      </c>
-      <c r="AJ4">
-        <v>0.76</v>
-      </c>
-      <c r="AK4">
-        <v>18.41</v>
-      </c>
-      <c r="AL4">
-        <v>13.68</v>
-      </c>
-      <c r="AM4">
-        <v>1.74</v>
-      </c>
-      <c r="AN4">
-        <v>0.24</v>
-      </c>
-      <c r="AO4">
-        <v>2.93</v>
-      </c>
-      <c r="AP4">
-        <v>1.65</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>27.11</v>
-      </c>
-      <c r="AS4">
-        <v>21.29</v>
-      </c>
-      <c r="AT4">
-        <v>35.99</v>
-      </c>
-      <c r="AU4">
-        <v>8.94</v>
-      </c>
-      <c r="AV4">
         <v>2.09</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>37852</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>202004</v>
@@ -1158,10 +918,10 @@
         <v>2209068584</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>4128156000</v>
@@ -1170,7 +930,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>2162744</v>
@@ -1182,117 +942,69 @@
         <v>6344</v>
       </c>
       <c r="O5">
-        <v>73.33</v>
+        <v>1.09</v>
       </c>
       <c r="P5">
-        <v>26.67</v>
+        <v>12.95</v>
       </c>
       <c r="Q5">
-        <v>13.99</v>
+        <v>25.16</v>
       </c>
       <c r="R5">
-        <v>8.99</v>
+        <v>28.94</v>
       </c>
       <c r="S5">
-        <v>5.25</v>
+        <v>2.44</v>
       </c>
       <c r="T5">
-        <v>33.5</v>
+        <v>1.55</v>
       </c>
       <c r="U5">
-        <v>15.2</v>
+        <v>6.66</v>
       </c>
       <c r="V5">
-        <v>11.43</v>
+        <v>16.76</v>
       </c>
       <c r="W5">
-        <v>11.65</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>7.93</v>
+        <v>4.46</v>
       </c>
       <c r="Y5">
-        <v>42.54</v>
+        <v>1.37</v>
       </c>
       <c r="Z5">
-        <v>32.98</v>
+        <v>1.55</v>
       </c>
       <c r="AA5">
-        <v>16.55</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>34.22</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>44.66</v>
       </c>
       <c r="AE5">
-        <v>1.09</v>
+        <v>5.83</v>
       </c>
       <c r="AF5">
-        <v>12.95</v>
-      </c>
-      <c r="AG5">
-        <v>25.16</v>
-      </c>
-      <c r="AH5">
-        <v>28.94</v>
-      </c>
-      <c r="AI5">
-        <v>2.44</v>
-      </c>
-      <c r="AJ5">
-        <v>1.55</v>
-      </c>
-      <c r="AK5">
-        <v>6.66</v>
-      </c>
-      <c r="AL5">
-        <v>16.76</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>4.46</v>
-      </c>
-      <c r="AO5">
-        <v>1.37</v>
-      </c>
-      <c r="AP5">
-        <v>1.55</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>11.11</v>
-      </c>
-      <c r="AS5">
-        <v>34.22</v>
-      </c>
-      <c r="AT5">
-        <v>44.66</v>
-      </c>
-      <c r="AU5">
-        <v>5.83</v>
-      </c>
-      <c r="AV5">
         <v>1.24</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>49681</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>202005</v>
@@ -1304,10 +1016,10 @@
         <v>2209068584</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>4128156000</v>
@@ -1316,7 +1028,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>2756325</v>
@@ -1328,117 +1040,69 @@
         <v>4545</v>
       </c>
       <c r="O6">
-        <v>44.2</v>
+        <v>2.18</v>
       </c>
       <c r="P6">
-        <v>55.8</v>
+        <v>22.08</v>
       </c>
       <c r="Q6">
-        <v>33.65</v>
+        <v>18.29</v>
       </c>
       <c r="R6">
-        <v>11.31</v>
+        <v>1.56</v>
       </c>
       <c r="S6">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="T6">
-        <v>14.83</v>
+        <v>3.87</v>
       </c>
       <c r="U6">
-        <v>7.4</v>
+        <v>22.74</v>
       </c>
       <c r="V6">
-        <v>11.27</v>
+        <v>23.58</v>
       </c>
       <c r="W6">
-        <v>19.31</v>
+        <v>2.05</v>
       </c>
       <c r="X6">
-        <v>21.7</v>
+        <v>2.62</v>
       </c>
       <c r="Y6">
-        <v>34.69</v>
+        <v>0.47</v>
       </c>
       <c r="Z6">
-        <v>28.13</v>
+        <v>2.83</v>
       </c>
       <c r="AA6">
-        <v>15.48</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>7.66</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>51.92</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="AE6">
-        <v>2.18</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AF6">
-        <v>22.08</v>
-      </c>
-      <c r="AG6">
-        <v>18.29</v>
-      </c>
-      <c r="AH6">
-        <v>1.56</v>
-      </c>
-      <c r="AI6">
-        <v>1.04</v>
-      </c>
-      <c r="AJ6">
-        <v>3.87</v>
-      </c>
-      <c r="AK6">
-        <v>22.74</v>
-      </c>
-      <c r="AL6">
-        <v>23.58</v>
-      </c>
-      <c r="AM6">
-        <v>2.05</v>
-      </c>
-      <c r="AN6">
-        <v>2.62</v>
-      </c>
-      <c r="AO6">
-        <v>0.47</v>
-      </c>
-      <c r="AP6">
-        <v>2.83</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>7.66</v>
-      </c>
-      <c r="AS6">
-        <v>51.92</v>
-      </c>
-      <c r="AT6">
-        <v>26.1</v>
-      </c>
-      <c r="AU6">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="AV6">
         <v>2.31</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>61583</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>202006</v>
@@ -1450,10 +1114,10 @@
         <v>2209068584</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>4128156000</v>
@@ -1462,7 +1126,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>4679882</v>
@@ -1474,117 +1138,69 @@
         <v>8265</v>
       </c>
       <c r="O7">
-        <v>53.55</v>
+        <v>0.66</v>
       </c>
       <c r="P7">
-        <v>46.45</v>
+        <v>61.81</v>
       </c>
       <c r="Q7">
-        <v>41.15</v>
+        <v>6.37</v>
       </c>
       <c r="R7">
-        <v>18.96</v>
+        <v>2.35</v>
       </c>
       <c r="S7">
+        <v>1.35</v>
+      </c>
+      <c r="T7">
+        <v>1.66</v>
+      </c>
+      <c r="U7">
         <v>7.5</v>
       </c>
-      <c r="T7">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="U7">
-        <v>5.79</v>
-      </c>
       <c r="V7">
-        <v>13.19</v>
+        <v>17.01</v>
       </c>
       <c r="W7">
-        <v>5.3</v>
+        <v>0.75</v>
       </c>
       <c r="X7">
-        <v>18.46</v>
+        <v>0.54</v>
       </c>
       <c r="Y7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>55.05</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>11.49</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>5.97</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>38.76</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>49.6</v>
       </c>
       <c r="AE7">
-        <v>0.66</v>
+        <v>3.47</v>
       </c>
       <c r="AF7">
-        <v>61.81</v>
-      </c>
-      <c r="AG7">
-        <v>6.37</v>
-      </c>
-      <c r="AH7">
-        <v>2.35</v>
-      </c>
-      <c r="AI7">
-        <v>1.35</v>
-      </c>
-      <c r="AJ7">
-        <v>1.66</v>
-      </c>
-      <c r="AK7">
-        <v>7.5</v>
-      </c>
-      <c r="AL7">
-        <v>17.01</v>
-      </c>
-      <c r="AM7">
-        <v>0.75</v>
-      </c>
-      <c r="AN7">
-        <v>0.54</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>5.97</v>
-      </c>
-      <c r="AS7">
-        <v>38.76</v>
-      </c>
-      <c r="AT7">
-        <v>49.6</v>
-      </c>
-      <c r="AU7">
-        <v>3.47</v>
-      </c>
-      <c r="AV7">
         <v>2.19</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>73495</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>202007</v>
@@ -1596,10 +1212,10 @@
         <v>2209068584</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <v>4128156000</v>
@@ -1608,7 +1224,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L8">
         <v>3150825</v>
@@ -1620,117 +1236,69 @@
         <v>6451</v>
       </c>
       <c r="O8">
-        <v>74.27</v>
+        <v>2.92</v>
       </c>
       <c r="P8">
-        <v>25.73</v>
+        <v>31.17</v>
       </c>
       <c r="Q8">
-        <v>14.36</v>
+        <v>9.32</v>
       </c>
       <c r="R8">
-        <v>30.28</v>
+        <v>1.63</v>
       </c>
       <c r="S8">
-        <v>4.73</v>
+        <v>3.07</v>
       </c>
       <c r="T8">
-        <v>22.86</v>
+        <v>1.68</v>
       </c>
       <c r="U8">
+        <v>12.83</v>
+      </c>
+      <c r="V8">
+        <v>14.58</v>
+      </c>
+      <c r="W8">
+        <v>22.26</v>
+      </c>
+      <c r="X8">
+        <v>0.54</v>
+      </c>
+      <c r="Y8">
+        <v>1.75</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC8">
+        <v>19.44</v>
+      </c>
+      <c r="AD8">
+        <v>40.4</v>
+      </c>
+      <c r="AE8">
         <v>8.58</v>
       </c>
-      <c r="V8">
-        <v>7.83</v>
-      </c>
-      <c r="W8">
-        <v>11.36</v>
-      </c>
-      <c r="X8">
-        <v>55.38</v>
-      </c>
-      <c r="Y8">
-        <v>20.98</v>
-      </c>
-      <c r="Z8">
-        <v>16.06</v>
-      </c>
-      <c r="AA8">
-        <v>7.59</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>2.92</v>
-      </c>
       <c r="AF8">
-        <v>31.17</v>
-      </c>
-      <c r="AG8">
-        <v>9.32</v>
-      </c>
-      <c r="AH8">
-        <v>1.63</v>
-      </c>
-      <c r="AI8">
-        <v>3.07</v>
-      </c>
-      <c r="AJ8">
-        <v>1.68</v>
-      </c>
-      <c r="AK8">
-        <v>12.83</v>
-      </c>
-      <c r="AL8">
-        <v>14.58</v>
-      </c>
-      <c r="AM8">
-        <v>22.26</v>
-      </c>
-      <c r="AN8">
-        <v>0.54</v>
-      </c>
-      <c r="AO8">
-        <v>1.75</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AS8">
-        <v>19.44</v>
-      </c>
-      <c r="AT8">
-        <v>40.4</v>
-      </c>
-      <c r="AU8">
-        <v>8.58</v>
-      </c>
-      <c r="AV8">
         <v>20.63</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>85401</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>202008</v>
@@ -1742,10 +1310,10 @@
         <v>2209068584</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I9">
         <v>4128156000</v>
@@ -1754,7 +1322,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L9">
         <v>2304650</v>
@@ -1766,117 +1334,69 @@
         <v>5214</v>
       </c>
       <c r="O9">
-        <v>57.2</v>
+        <v>1.74</v>
       </c>
       <c r="P9">
-        <v>42.8</v>
+        <v>27.62</v>
       </c>
       <c r="Q9">
-        <v>20.6</v>
+        <v>14.01</v>
       </c>
       <c r="R9">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="S9">
-        <v>11.21</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="T9">
-        <v>20.71</v>
+        <v>1.74</v>
       </c>
       <c r="U9">
-        <v>6.79</v>
+        <v>17.53</v>
       </c>
       <c r="V9">
-        <v>4.72</v>
+        <v>24.19</v>
       </c>
       <c r="W9">
-        <v>20.85</v>
+        <v>1.08</v>
       </c>
       <c r="X9">
-        <v>23.67</v>
+        <v>0.7</v>
       </c>
       <c r="Y9">
-        <v>27.78</v>
+        <v>1.78</v>
       </c>
       <c r="Z9">
-        <v>32.85</v>
+        <v>2.41</v>
       </c>
       <c r="AA9">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>24.35</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>46.82</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>12.16</v>
       </c>
       <c r="AE9">
-        <v>1.74</v>
+        <v>9.91</v>
       </c>
       <c r="AF9">
-        <v>27.62</v>
-      </c>
-      <c r="AG9">
-        <v>14.01</v>
-      </c>
-      <c r="AH9">
-        <v>1.51</v>
-      </c>
-      <c r="AI9">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="AJ9">
-        <v>1.74</v>
-      </c>
-      <c r="AK9">
-        <v>17.53</v>
-      </c>
-      <c r="AL9">
-        <v>24.19</v>
-      </c>
-      <c r="AM9">
-        <v>1.08</v>
-      </c>
-      <c r="AN9">
-        <v>0.7</v>
-      </c>
-      <c r="AO9">
-        <v>1.78</v>
-      </c>
-      <c r="AP9">
-        <v>2.41</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>24.35</v>
-      </c>
-      <c r="AS9">
-        <v>46.82</v>
-      </c>
-      <c r="AT9">
-        <v>12.16</v>
-      </c>
-      <c r="AU9">
-        <v>9.91</v>
-      </c>
-      <c r="AV9">
         <v>2.57</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>97332</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>202009</v>
@@ -1888,10 +1408,10 @@
         <v>2209068584</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>4128156000</v>
@@ -1900,7 +1420,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L10">
         <v>11648955</v>
@@ -1912,117 +1432,69 @@
         <v>21385</v>
       </c>
       <c r="O10">
-        <v>36.21</v>
+        <v>0.91</v>
       </c>
       <c r="P10">
-        <v>63.79</v>
+        <v>19.92</v>
       </c>
       <c r="Q10">
-        <v>28.91</v>
+        <v>20.71</v>
       </c>
       <c r="R10">
-        <v>3.5</v>
+        <v>7.53</v>
       </c>
       <c r="S10">
-        <v>14.2</v>
+        <v>1.05</v>
       </c>
       <c r="T10">
-        <v>15.05</v>
+        <v>3.63</v>
       </c>
       <c r="U10">
-        <v>1.06</v>
+        <v>23.69</v>
       </c>
       <c r="V10">
-        <v>13.41</v>
+        <v>12.9</v>
       </c>
       <c r="W10">
-        <v>23.88</v>
+        <v>9.26</v>
       </c>
       <c r="X10">
-        <v>29.64</v>
+        <v>0.41</v>
       </c>
       <c r="Y10">
-        <v>47.63</v>
+        <v>0.35</v>
       </c>
       <c r="Z10">
-        <v>19.24</v>
+        <v>0.33</v>
       </c>
       <c r="AA10">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>7.39</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>59.59</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>26.57</v>
       </c>
       <c r="AE10">
-        <v>0.91</v>
+        <v>2.94</v>
       </c>
       <c r="AF10">
-        <v>19.92</v>
-      </c>
-      <c r="AG10">
-        <v>20.71</v>
-      </c>
-      <c r="AH10">
-        <v>7.53</v>
-      </c>
-      <c r="AI10">
-        <v>1.05</v>
-      </c>
-      <c r="AJ10">
-        <v>3.63</v>
-      </c>
-      <c r="AK10">
-        <v>23.69</v>
-      </c>
-      <c r="AL10">
-        <v>12.9</v>
-      </c>
-      <c r="AM10">
-        <v>9.26</v>
-      </c>
-      <c r="AN10">
-        <v>0.41</v>
-      </c>
-      <c r="AO10">
-        <v>0.35</v>
-      </c>
-      <c r="AP10">
-        <v>0.33</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>7.39</v>
-      </c>
-      <c r="AS10">
-        <v>59.59</v>
-      </c>
-      <c r="AT10">
-        <v>26.57</v>
-      </c>
-      <c r="AU10">
-        <v>2.94</v>
-      </c>
-      <c r="AV10">
         <v>2.83</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>109295</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>202010</v>
@@ -2034,10 +1506,10 @@
         <v>2209068584</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>4128156000</v>
@@ -2046,7 +1518,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>9670153</v>
@@ -2058,117 +1530,69 @@
         <v>18004</v>
       </c>
       <c r="O11">
-        <v>60.76</v>
+        <v>10.54</v>
       </c>
       <c r="P11">
-        <v>39.24</v>
+        <v>31.07</v>
       </c>
       <c r="Q11">
-        <v>15.24</v>
+        <v>8.82</v>
       </c>
       <c r="R11">
-        <v>28.59</v>
+        <v>18.98</v>
       </c>
       <c r="S11">
-        <v>9.609999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="T11">
-        <v>4.13</v>
+        <v>0.32</v>
       </c>
       <c r="U11">
-        <v>17</v>
+        <v>18.79</v>
       </c>
       <c r="V11">
-        <v>16.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="W11">
-        <v>8.58</v>
+        <v>0.64</v>
       </c>
       <c r="X11">
-        <v>11.04</v>
+        <v>0.79</v>
       </c>
       <c r="Y11">
-        <v>47.85</v>
+        <v>5.03</v>
       </c>
       <c r="Z11">
-        <v>39.81</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>17.65</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>40.86</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>25.86</v>
       </c>
       <c r="AE11">
-        <v>10.54</v>
+        <v>7.89</v>
       </c>
       <c r="AF11">
-        <v>31.07</v>
-      </c>
-      <c r="AG11">
-        <v>8.82</v>
-      </c>
-      <c r="AH11">
-        <v>18.98</v>
-      </c>
-      <c r="AI11">
-        <v>1.5</v>
-      </c>
-      <c r="AJ11">
-        <v>0.32</v>
-      </c>
-      <c r="AK11">
-        <v>18.79</v>
-      </c>
-      <c r="AL11">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="AM11">
-        <v>0.64</v>
-      </c>
-      <c r="AN11">
-        <v>0.79</v>
-      </c>
-      <c r="AO11">
-        <v>5.03</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>17.65</v>
-      </c>
-      <c r="AS11">
-        <v>40.86</v>
-      </c>
-      <c r="AT11">
-        <v>25.86</v>
-      </c>
-      <c r="AU11">
-        <v>7.89</v>
-      </c>
-      <c r="AV11">
         <v>2.71</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>121304</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>202011</v>
@@ -2180,10 +1604,10 @@
         <v>2209068584</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>4128156000</v>
@@ -2192,7 +1616,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K12" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L12">
         <v>4130707</v>
@@ -2204,117 +1628,69 @@
         <v>5595</v>
       </c>
       <c r="O12">
-        <v>58.3</v>
+        <v>2.6</v>
       </c>
       <c r="P12">
-        <v>41.7</v>
+        <v>24.3</v>
       </c>
       <c r="Q12">
-        <v>32.18</v>
+        <v>13.74</v>
       </c>
       <c r="R12">
-        <v>17.71</v>
+        <v>2.79</v>
       </c>
       <c r="S12">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="T12">
-        <v>8.44</v>
+        <v>1.12</v>
       </c>
       <c r="U12">
-        <v>20.37</v>
+        <v>23.07</v>
       </c>
       <c r="V12">
-        <v>5.58</v>
+        <v>24.1</v>
       </c>
       <c r="W12">
-        <v>9.52</v>
+        <v>3.48</v>
       </c>
       <c r="X12">
-        <v>21.47</v>
+        <v>2.71</v>
       </c>
       <c r="Y12">
-        <v>48.93</v>
+        <v>1.37</v>
       </c>
       <c r="Z12">
-        <v>19.19</v>
+        <v>1.08</v>
       </c>
       <c r="AA12">
-        <v>10.41</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>14.31</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>51.56</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>21.59</v>
       </c>
       <c r="AE12">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="AF12">
-        <v>24.3</v>
-      </c>
-      <c r="AG12">
-        <v>13.74</v>
-      </c>
-      <c r="AH12">
-        <v>2.79</v>
-      </c>
-      <c r="AI12">
-        <v>2.1</v>
-      </c>
-      <c r="AJ12">
-        <v>1.12</v>
-      </c>
-      <c r="AK12">
-        <v>23.07</v>
-      </c>
-      <c r="AL12">
-        <v>24.1</v>
-      </c>
-      <c r="AM12">
-        <v>3.48</v>
-      </c>
-      <c r="AN12">
-        <v>2.71</v>
-      </c>
-      <c r="AO12">
-        <v>1.37</v>
-      </c>
-      <c r="AP12">
-        <v>1.08</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>14.31</v>
-      </c>
-      <c r="AS12">
-        <v>51.56</v>
-      </c>
-      <c r="AT12">
-        <v>21.59</v>
-      </c>
-      <c r="AU12">
-        <v>3.9</v>
-      </c>
-      <c r="AV12">
         <v>6.19</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>133315</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>202012</v>
@@ -2326,10 +1702,10 @@
         <v>2209068584</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>4128156000</v>
@@ -2338,7 +1714,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L13">
         <v>2690325</v>
@@ -2350,117 +1726,69 @@
         <v>5900</v>
       </c>
       <c r="O13">
-        <v>44.22</v>
+        <v>1.17</v>
       </c>
       <c r="P13">
-        <v>55.78</v>
+        <v>19.21</v>
       </c>
       <c r="Q13">
-        <v>16.56</v>
+        <v>19.09</v>
       </c>
       <c r="R13">
-        <v>10.11</v>
+        <v>3.92</v>
       </c>
       <c r="S13">
-        <v>6.57</v>
+        <v>0.95</v>
       </c>
       <c r="T13">
-        <v>11.79</v>
+        <v>2.71</v>
       </c>
       <c r="U13">
-        <v>10.33</v>
+        <v>14.55</v>
       </c>
       <c r="V13">
-        <v>5.44</v>
+        <v>10.68</v>
       </c>
       <c r="W13">
-        <v>39.22</v>
+        <v>25.48</v>
       </c>
       <c r="X13">
-        <v>37.25</v>
+        <v>2.24</v>
       </c>
       <c r="Y13">
-        <v>25.31</v>
+        <v>0.86</v>
       </c>
       <c r="Z13">
-        <v>31.6</v>
+        <v>3.02</v>
       </c>
       <c r="AA13">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>57.32</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>24.78</v>
       </c>
       <c r="AE13">
-        <v>1.17</v>
+        <v>4.79</v>
       </c>
       <c r="AF13">
-        <v>19.21</v>
-      </c>
-      <c r="AG13">
-        <v>19.09</v>
-      </c>
-      <c r="AH13">
-        <v>3.92</v>
-      </c>
-      <c r="AI13">
-        <v>0.95</v>
-      </c>
-      <c r="AJ13">
-        <v>2.71</v>
-      </c>
-      <c r="AK13">
-        <v>14.55</v>
-      </c>
-      <c r="AL13">
-        <v>10.68</v>
-      </c>
-      <c r="AM13">
-        <v>25.48</v>
-      </c>
-      <c r="AN13">
-        <v>2.24</v>
-      </c>
-      <c r="AO13">
-        <v>0.86</v>
-      </c>
-      <c r="AP13">
-        <v>3.02</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>7.5</v>
-      </c>
-      <c r="AS13">
-        <v>57.32</v>
-      </c>
-      <c r="AT13">
-        <v>24.78</v>
-      </c>
-      <c r="AU13">
-        <v>4.79</v>
-      </c>
-      <c r="AV13">
         <v>1.73</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>145354</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>202101</v>
@@ -2472,10 +1800,10 @@
         <v>2209068584</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>4128156000</v>
@@ -2484,7 +1812,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>3768801</v>
@@ -2496,117 +1824,69 @@
         <v>9607</v>
       </c>
       <c r="O14">
-        <v>32.67</v>
+        <v>2.97</v>
       </c>
       <c r="P14">
-        <v>67.33</v>
+        <v>52.02</v>
       </c>
       <c r="Q14">
-        <v>11.73</v>
+        <v>5.44</v>
       </c>
       <c r="R14">
-        <v>15.25</v>
+        <v>2.39</v>
       </c>
       <c r="S14">
-        <v>4.21</v>
+        <v>3.71</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="U14">
-        <v>4.86</v>
+        <v>5.01</v>
       </c>
       <c r="V14">
-        <v>4.36</v>
+        <v>20.41</v>
       </c>
       <c r="W14">
-        <v>55.6</v>
+        <v>1.74</v>
       </c>
       <c r="X14">
-        <v>13.1</v>
+        <v>4.25</v>
       </c>
       <c r="Y14">
-        <v>71.76000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="Z14">
-        <v>14.09</v>
+        <v>0.22</v>
       </c>
       <c r="AA14">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>62.51</v>
       </c>
       <c r="AE14">
-        <v>2.97</v>
+        <v>3.71</v>
       </c>
       <c r="AF14">
-        <v>52.02</v>
-      </c>
-      <c r="AG14">
-        <v>5.44</v>
-      </c>
-      <c r="AH14">
-        <v>2.39</v>
-      </c>
-      <c r="AI14">
-        <v>3.71</v>
-      </c>
-      <c r="AJ14">
-        <v>2.06</v>
-      </c>
-      <c r="AK14">
-        <v>5.01</v>
-      </c>
-      <c r="AL14">
-        <v>20.41</v>
-      </c>
-      <c r="AM14">
-        <v>1.74</v>
-      </c>
-      <c r="AN14">
-        <v>4.25</v>
-      </c>
-      <c r="AO14">
-        <v>1.12</v>
-      </c>
-      <c r="AP14">
-        <v>0.22</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>8.9</v>
-      </c>
-      <c r="AS14">
-        <v>21.9</v>
-      </c>
-      <c r="AT14">
-        <v>62.51</v>
-      </c>
-      <c r="AU14">
-        <v>3.71</v>
-      </c>
-      <c r="AV14">
         <v>1.65</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>157391</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>202102</v>
@@ -2618,10 +1898,10 @@
         <v>2209068584</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <v>4128156000</v>
@@ -2630,7 +1910,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <v>2445776</v>
@@ -2642,117 +1922,69 @@
         <v>5208</v>
       </c>
       <c r="O15">
-        <v>67.25</v>
+        <v>4.74</v>
       </c>
       <c r="P15">
-        <v>32.75</v>
+        <v>31.43</v>
       </c>
       <c r="Q15">
-        <v>7.7</v>
+        <v>14.51</v>
       </c>
       <c r="R15">
-        <v>11.37</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S15">
-        <v>19.44</v>
+        <v>11.09</v>
       </c>
       <c r="T15">
-        <v>23.21</v>
+        <v>3.11</v>
       </c>
       <c r="U15">
-        <v>18.28</v>
+        <v>10.77</v>
       </c>
       <c r="V15">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="W15">
-        <v>14.19</v>
+        <v>4.78</v>
       </c>
       <c r="X15">
-        <v>24.86</v>
+        <v>3.26</v>
       </c>
       <c r="Y15">
-        <v>45.12</v>
+        <v>0.21</v>
       </c>
       <c r="Z15">
-        <v>22.72</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>25.54</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>44.31</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>24.09</v>
       </c>
       <c r="AE15">
-        <v>4.74</v>
+        <v>2.18</v>
       </c>
       <c r="AF15">
-        <v>31.43</v>
-      </c>
-      <c r="AG15">
-        <v>14.51</v>
-      </c>
-      <c r="AH15">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AI15">
-        <v>11.09</v>
-      </c>
-      <c r="AJ15">
-        <v>3.11</v>
-      </c>
-      <c r="AK15">
-        <v>10.77</v>
-      </c>
-      <c r="AL15">
-        <v>8</v>
-      </c>
-      <c r="AM15">
-        <v>4.78</v>
-      </c>
-      <c r="AN15">
-        <v>3.26</v>
-      </c>
-      <c r="AO15">
-        <v>0.21</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>25.54</v>
-      </c>
-      <c r="AS15">
-        <v>44.31</v>
-      </c>
-      <c r="AT15">
-        <v>24.09</v>
-      </c>
-      <c r="AU15">
-        <v>2.18</v>
-      </c>
-      <c r="AV15">
         <v>3.67</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>169474</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>202103</v>
@@ -2764,10 +1996,10 @@
         <v>2209068584</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>4128156000</v>
@@ -2776,7 +2008,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L16">
         <v>4774233</v>
@@ -2788,117 +2020,69 @@
         <v>6652</v>
       </c>
       <c r="O16">
-        <v>33.81</v>
+        <v>0.92</v>
       </c>
       <c r="P16">
-        <v>66.19</v>
+        <v>17.44</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>12.25</v>
       </c>
       <c r="R16">
-        <v>11.4</v>
+        <v>1.98</v>
       </c>
       <c r="S16">
-        <v>8.52</v>
+        <v>34.11</v>
       </c>
       <c r="T16">
-        <v>12.44</v>
+        <v>1.32</v>
       </c>
       <c r="U16">
-        <v>3.9</v>
+        <v>12.6</v>
       </c>
       <c r="V16">
-        <v>2.73</v>
+        <v>17.1</v>
       </c>
       <c r="W16">
-        <v>40.01</v>
+        <v>1.17</v>
       </c>
       <c r="X16">
-        <v>18.04</v>
+        <v>1.1</v>
       </c>
       <c r="Y16">
-        <v>55.34</v>
+        <v>0.11</v>
       </c>
       <c r="Z16">
-        <v>18.73</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>7.88</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>7.04</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>72.7</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>15.81</v>
       </c>
       <c r="AE16">
-        <v>0.92</v>
+        <v>2.77</v>
       </c>
       <c r="AF16">
-        <v>17.44</v>
-      </c>
-      <c r="AG16">
-        <v>12.25</v>
-      </c>
-      <c r="AH16">
-        <v>1.98</v>
-      </c>
-      <c r="AI16">
-        <v>34.11</v>
-      </c>
-      <c r="AJ16">
-        <v>1.32</v>
-      </c>
-      <c r="AK16">
-        <v>12.6</v>
-      </c>
-      <c r="AL16">
-        <v>17.1</v>
-      </c>
-      <c r="AM16">
-        <v>1.17</v>
-      </c>
-      <c r="AN16">
-        <v>1.1</v>
-      </c>
-      <c r="AO16">
-        <v>0.11</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>7.04</v>
-      </c>
-      <c r="AS16">
-        <v>72.7</v>
-      </c>
-      <c r="AT16">
-        <v>15.81</v>
-      </c>
-      <c r="AU16">
-        <v>2.77</v>
-      </c>
-      <c r="AV16">
         <v>1.57</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>181612</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>202104</v>
@@ -2910,10 +2094,10 @@
         <v>2209068584</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>4128156000</v>
@@ -2922,7 +2106,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L17">
         <v>4413327</v>
@@ -2934,117 +2118,69 @@
         <v>4962</v>
       </c>
       <c r="O17">
-        <v>51.3</v>
+        <v>3.13</v>
       </c>
       <c r="P17">
-        <v>48.7</v>
+        <v>34.73</v>
       </c>
       <c r="Q17">
-        <v>34.72</v>
+        <v>20.93</v>
       </c>
       <c r="R17">
-        <v>11.61</v>
+        <v>0.19</v>
       </c>
       <c r="S17">
-        <v>11.36</v>
+        <v>3.02</v>
       </c>
       <c r="T17">
-        <v>7.89</v>
+        <v>0.44</v>
       </c>
       <c r="U17">
-        <v>11.66</v>
+        <v>17.39</v>
       </c>
       <c r="V17">
-        <v>8.77</v>
+        <v>15.15</v>
       </c>
       <c r="W17">
-        <v>13.99</v>
+        <v>3.84</v>
       </c>
       <c r="X17">
-        <v>24.02</v>
+        <v>1.16</v>
       </c>
       <c r="Y17">
-        <v>39.78</v>
+        <v>2.59</v>
       </c>
       <c r="Z17">
-        <v>26.12</v>
+        <v>0.6</v>
       </c>
       <c r="AA17">
-        <v>10.09</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>14.78</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>44.95</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>26.62</v>
       </c>
       <c r="AE17">
-        <v>3.13</v>
+        <v>7.76</v>
       </c>
       <c r="AF17">
-        <v>34.73</v>
-      </c>
-      <c r="AG17">
-        <v>20.93</v>
-      </c>
-      <c r="AH17">
-        <v>0.19</v>
-      </c>
-      <c r="AI17">
-        <v>3.02</v>
-      </c>
-      <c r="AJ17">
-        <v>0.44</v>
-      </c>
-      <c r="AK17">
-        <v>17.39</v>
-      </c>
-      <c r="AL17">
-        <v>15.15</v>
-      </c>
-      <c r="AM17">
-        <v>3.84</v>
-      </c>
-      <c r="AN17">
-        <v>1.16</v>
-      </c>
-      <c r="AO17">
-        <v>2.59</v>
-      </c>
-      <c r="AP17">
-        <v>0.6</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>14.78</v>
-      </c>
-      <c r="AS17">
-        <v>44.95</v>
-      </c>
-      <c r="AT17">
-        <v>26.62</v>
-      </c>
-      <c r="AU17">
-        <v>7.76</v>
-      </c>
-      <c r="AV17">
         <v>2.7</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>193778</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>202105</v>
@@ -3056,10 +2192,10 @@
         <v>2209068584</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I18">
         <v>4128156000</v>
@@ -3068,7 +2204,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K18" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L18">
         <v>3844290</v>
@@ -3080,117 +2216,69 @@
         <v>4835</v>
       </c>
       <c r="O18">
-        <v>48.68</v>
+        <v>6.78</v>
       </c>
       <c r="P18">
-        <v>51.32</v>
+        <v>23.11</v>
       </c>
       <c r="Q18">
-        <v>31.61</v>
+        <v>21.61</v>
       </c>
       <c r="R18">
-        <v>11.48</v>
+        <v>3.05</v>
       </c>
       <c r="S18">
-        <v>19.55</v>
+        <v>2.03</v>
       </c>
       <c r="T18">
-        <v>8.49</v>
+        <v>2.23</v>
       </c>
       <c r="U18">
-        <v>7.6</v>
+        <v>17.82</v>
       </c>
       <c r="V18">
-        <v>5.71</v>
+        <v>19.76</v>
       </c>
       <c r="W18">
-        <v>15.56</v>
+        <v>2.66</v>
       </c>
       <c r="X18">
-        <v>20.2</v>
+        <v>0.95</v>
       </c>
       <c r="Y18">
-        <v>42.54</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>28.6</v>
+        <v>0.21</v>
       </c>
       <c r="AA18">
-        <v>8.66</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>16.17</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>46.64</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>25.26</v>
       </c>
       <c r="AE18">
-        <v>6.78</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AF18">
-        <v>23.11</v>
-      </c>
-      <c r="AG18">
-        <v>21.61</v>
-      </c>
-      <c r="AH18">
-        <v>3.05</v>
-      </c>
-      <c r="AI18">
-        <v>2.03</v>
-      </c>
-      <c r="AJ18">
-        <v>2.23</v>
-      </c>
-      <c r="AK18">
-        <v>17.82</v>
-      </c>
-      <c r="AL18">
-        <v>19.76</v>
-      </c>
-      <c r="AM18">
-        <v>2.66</v>
-      </c>
-      <c r="AN18">
-        <v>0.95</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0.21</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>16.17</v>
-      </c>
-      <c r="AS18">
-        <v>46.64</v>
-      </c>
-      <c r="AT18">
-        <v>25.26</v>
-      </c>
-      <c r="AU18">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AV18">
         <v>2.44</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>205975</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>202106</v>
@@ -3202,10 +2290,10 @@
         <v>2209068584</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I19">
         <v>4128156000</v>
@@ -3214,7 +2302,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L19">
         <v>2073787</v>
@@ -3226,117 +2314,69 @@
         <v>4380</v>
       </c>
       <c r="O19">
-        <v>58.5</v>
+        <v>3.81</v>
       </c>
       <c r="P19">
-        <v>41.5</v>
+        <v>17.3</v>
       </c>
       <c r="Q19">
-        <v>32.24</v>
+        <v>18.13</v>
       </c>
       <c r="R19">
-        <v>19.18</v>
+        <v>4.41</v>
       </c>
       <c r="S19">
-        <v>12</v>
+        <v>15.55</v>
       </c>
       <c r="T19">
-        <v>8.25</v>
+        <v>0.79</v>
       </c>
       <c r="U19">
-        <v>10.27</v>
+        <v>22.88</v>
       </c>
       <c r="V19">
-        <v>8.800000000000001</v>
+        <v>11.24</v>
       </c>
       <c r="W19">
-        <v>9.26</v>
+        <v>3.48</v>
       </c>
       <c r="X19">
-        <v>15.48</v>
+        <v>2.41</v>
       </c>
       <c r="Y19">
-        <v>42.33</v>
+        <v>1.65</v>
       </c>
       <c r="Z19">
-        <v>28.72</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>13.47</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>55.22</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="AE19">
-        <v>3.81</v>
+        <v>12.63</v>
       </c>
       <c r="AF19">
-        <v>17.3</v>
-      </c>
-      <c r="AG19">
-        <v>18.13</v>
-      </c>
-      <c r="AH19">
-        <v>4.41</v>
-      </c>
-      <c r="AI19">
-        <v>15.55</v>
-      </c>
-      <c r="AJ19">
-        <v>0.79</v>
-      </c>
-      <c r="AK19">
-        <v>22.88</v>
-      </c>
-      <c r="AL19">
-        <v>11.24</v>
-      </c>
-      <c r="AM19">
-        <v>3.48</v>
-      </c>
-      <c r="AN19">
-        <v>2.41</v>
-      </c>
-      <c r="AO19">
-        <v>1.65</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>12.1</v>
-      </c>
-      <c r="AS19">
-        <v>55.22</v>
-      </c>
-      <c r="AT19">
-        <v>15.75</v>
-      </c>
-      <c r="AU19">
-        <v>12.63</v>
-      </c>
-      <c r="AV19">
         <v>2.64</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>218204</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>202107</v>
@@ -3348,10 +2388,10 @@
         <v>2209068584</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <v>4128156000</v>
@@ -3360,7 +2400,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L20">
         <v>209953</v>
@@ -3372,117 +2412,69 @@
         <v>3267</v>
       </c>
       <c r="O20">
-        <v>40.56</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>59.44</v>
+        <v>25.26</v>
       </c>
       <c r="Q20">
-        <v>39.8</v>
+        <v>2.55</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>10.46</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>12.76</v>
+        <v>2.81</v>
       </c>
       <c r="V20">
-        <v>27.81</v>
+        <v>28.32</v>
       </c>
       <c r="W20">
-        <v>19.64</v>
+        <v>30.61</v>
       </c>
       <c r="X20">
-        <v>35.2</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>58.42</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>6.38</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>35.71</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>60.2</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>25.26</v>
-      </c>
-      <c r="AG20">
-        <v>2.55</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>10.46</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>2.81</v>
-      </c>
-      <c r="AL20">
-        <v>28.32</v>
-      </c>
-      <c r="AM20">
-        <v>30.61</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>4.08</v>
-      </c>
-      <c r="AS20">
-        <v>35.71</v>
-      </c>
-      <c r="AT20">
-        <v>60.2</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>336307</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>202204</v>
@@ -3494,10 +2486,10 @@
         <v>2029505422</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I21">
         <v>4128156000</v>
@@ -3506,7 +2498,7 @@
         <v>81.21212121212122</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L21">
         <v>10004008</v>
@@ -3518,117 +2510,69 @@
         <v>68596</v>
       </c>
       <c r="O21">
-        <v>82</v>
+        <v>0.31</v>
       </c>
       <c r="P21">
-        <v>18</v>
+        <v>16.61</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R21">
-        <v>28.31</v>
+        <v>15.58</v>
       </c>
       <c r="S21">
-        <v>29.09</v>
+        <v>1.41</v>
       </c>
       <c r="T21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1.4</v>
+        <v>29.48</v>
       </c>
       <c r="V21">
-        <v>7.19</v>
+        <v>31.87</v>
       </c>
       <c r="W21">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>10.09</v>
+        <v>2.54</v>
       </c>
       <c r="Y21">
-        <v>71.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>17.17</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>42.02</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE21">
-        <v>0.31</v>
+        <v>23.76</v>
       </c>
       <c r="AF21">
-        <v>16.61</v>
-      </c>
-      <c r="AG21">
-        <v>2.19</v>
-      </c>
-      <c r="AH21">
-        <v>15.58</v>
-      </c>
-      <c r="AI21">
-        <v>1.41</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>29.48</v>
-      </c>
-      <c r="AL21">
-        <v>31.87</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>2.54</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>1.72</v>
-      </c>
-      <c r="AS21">
-        <v>42.02</v>
-      </c>
-      <c r="AT21">
-        <v>1.22</v>
-      </c>
-      <c r="AU21">
-        <v>23.76</v>
-      </c>
-      <c r="AV21">
         <v>31.29</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>336308</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>202204</v>
@@ -3640,10 +2584,10 @@
         <v>6354500767</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I22">
         <v>4128156000</v>
@@ -3652,7 +2596,7 @@
         <v>83.40909090909091</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="L22">
         <v>5493965</v>
@@ -3664,117 +2608,69 @@
         <v>70880</v>
       </c>
       <c r="O22">
-        <v>83.89</v>
+        <v>1.03</v>
       </c>
       <c r="P22">
-        <v>16.11</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>12.42</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>22.45</v>
       </c>
       <c r="S22">
-        <v>16.14</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>3.72</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>51.94</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>12.09</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>16.11</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>13.03</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>13.55</v>
+        <v>1.03</v>
       </c>
       <c r="AA22">
-        <v>39.42</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>49.12</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>45.19</v>
       </c>
       <c r="AE22">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="AG22">
-        <v>12.42</v>
-      </c>
-      <c r="AH22">
-        <v>22.45</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>1.03</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>49.12</v>
-      </c>
-      <c r="AT22">
-        <v>45.19</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
         <v>4.66</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>348876</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>202205</v>
@@ -3786,10 +2682,10 @@
         <v>2029505422</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I23">
         <v>4128156000</v>
@@ -3798,7 +2694,7 @@
         <v>81.21212121212122</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L23">
         <v>71136322</v>
@@ -3810,117 +2706,69 @@
         <v>213477</v>
       </c>
       <c r="O23">
-        <v>82.31999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="P23">
-        <v>17.68</v>
+        <v>21.59</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="R23">
-        <v>22.64</v>
+        <v>13.69</v>
       </c>
       <c r="S23">
-        <v>35.94</v>
+        <v>0.06</v>
       </c>
       <c r="T23">
-        <v>4.48</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>7.67</v>
+        <v>39.07</v>
       </c>
       <c r="V23">
-        <v>11.59</v>
+        <v>16.9</v>
       </c>
       <c r="W23">
-        <v>17.68</v>
+        <v>2.36</v>
       </c>
       <c r="X23">
-        <v>1.7</v>
+        <v>3.82</v>
       </c>
       <c r="Y23">
-        <v>39.34</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>35.56</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>36.06</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE23">
-        <v>0.13</v>
+        <v>53.75</v>
       </c>
       <c r="AF23">
-        <v>21.59</v>
-      </c>
-      <c r="AG23">
-        <v>2.36</v>
-      </c>
-      <c r="AH23">
-        <v>13.69</v>
-      </c>
-      <c r="AI23">
-        <v>0.06</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>39.07</v>
-      </c>
-      <c r="AL23">
-        <v>16.9</v>
-      </c>
-      <c r="AM23">
-        <v>2.36</v>
-      </c>
-      <c r="AN23">
-        <v>3.82</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>3.05</v>
-      </c>
-      <c r="AS23">
-        <v>36.06</v>
-      </c>
-      <c r="AT23">
-        <v>1.27</v>
-      </c>
-      <c r="AU23">
-        <v>53.75</v>
-      </c>
-      <c r="AV23">
         <v>5.88</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>348877</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>202205</v>
@@ -3932,10 +2780,10 @@
         <v>5769901422</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I24">
         <v>4128156000</v>
@@ -3944,7 +2792,7 @@
         <v>24.12727272727273</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L24">
         <v>106658</v>
@@ -3956,10 +2804,10 @@
         <v>4000</v>
       </c>
       <c r="O24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3968,105 +2816,57 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U24">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="V24">
+        <v>56.5</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
         <v>25</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>25</v>
-      </c>
-      <c r="Y24">
-        <v>25</v>
-      </c>
-      <c r="Z24">
-        <v>50</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
       <c r="AC24">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>56.5</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>18.5</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>25</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>56.5</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>25</v>
-      </c>
-      <c r="AS24">
-        <v>18.5</v>
-      </c>
-      <c r="AT24">
-        <v>56.5</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>348878</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D25">
         <v>202205</v>
@@ -4078,10 +2878,10 @@
         <v>6354500767</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I25">
         <v>4128156000</v>
@@ -4090,7 +2890,7 @@
         <v>83.40909090909091</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="L25">
         <v>34376814</v>
@@ -4102,105 +2902,57 @@
         <v>160705</v>
       </c>
       <c r="O25">
-        <v>98.04000000000001</v>
+        <v>11.57</v>
       </c>
       <c r="P25">
-        <v>1.96</v>
+        <v>13.5</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>17.63</v>
       </c>
       <c r="R25">
-        <v>24.41</v>
+        <v>15.97</v>
       </c>
       <c r="S25">
-        <v>52.22</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>3.61</v>
+        <v>4.21</v>
       </c>
       <c r="U25">
-        <v>0.09</v>
+        <v>17.73</v>
       </c>
       <c r="V25">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="W25">
-        <v>1.96</v>
+        <v>1.46</v>
       </c>
       <c r="X25">
-        <v>38.4</v>
+        <v>0.05</v>
       </c>
       <c r="Y25">
-        <v>27.99</v>
+        <v>0.08</v>
       </c>
       <c r="Z25">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>30.74</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>22.92</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>15.65</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>41.65</v>
       </c>
       <c r="AE25">
-        <v>11.57</v>
+        <v>3.39</v>
       </c>
       <c r="AF25">
-        <v>13.5</v>
-      </c>
-      <c r="AG25">
-        <v>17.63</v>
-      </c>
-      <c r="AH25">
-        <v>15.97</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>4.21</v>
-      </c>
-      <c r="AK25">
-        <v>17.73</v>
-      </c>
-      <c r="AL25">
-        <v>17.9</v>
-      </c>
-      <c r="AM25">
-        <v>1.46</v>
-      </c>
-      <c r="AN25">
-        <v>0.05</v>
-      </c>
-      <c r="AO25">
-        <v>0.08</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>22.92</v>
-      </c>
-      <c r="AS25">
-        <v>15.65</v>
-      </c>
-      <c r="AT25">
-        <v>41.65</v>
-      </c>
-      <c r="AU25">
-        <v>3.39</v>
-      </c>
-      <c r="AV25">
         <v>16.3</v>
       </c>
     </row>
